--- a/lib/Template A.xlsx
+++ b/lib/Template A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="25095" windowHeight="7215"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="23760" windowHeight="6780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PAYROLL" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">PAYROLL!$C$1:$U$51</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <oleSize ref="B1:V26"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="78">
   <si>
     <t>Monday</t>
   </si>
@@ -1139,18 +1138,6 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1159,6 +1146,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1495,7 +1494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1505,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="B10" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3440,7 +3439,7 @@
       <c r="S28" s="67"/>
       <c r="T28" s="67"/>
     </row>
-    <row r="29" spans="1:21" ht="409.6">
+    <row r="29" spans="1:21">
       <c r="A29" s="109" t="s">
         <v>54</v>
       </c>
@@ -3501,7 +3500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="409.6">
+    <row r="30" spans="1:21">
       <c r="A30" s="107">
         <v>0.33333333333333298</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="409.6">
+    <row r="31" spans="1:21">
       <c r="A31" s="107">
         <v>0.33333333333333298</v>
       </c>
@@ -3657,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="409.6">
+    <row r="32" spans="1:21">
       <c r="A32" s="107">
         <v>0.33333333333333298</v>
       </c>
@@ -3735,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="409.6">
+    <row r="33" spans="1:21">
       <c r="A33" s="107">
         <v>0.33333333333333298</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="409.6">
+    <row r="34" spans="1:21">
       <c r="A34" s="107">
         <v>0.33333333333333298</v>
       </c>
@@ -3966,7 +3965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="409.6">
+    <row r="36" spans="1:21">
       <c r="A36" s="136"/>
       <c r="B36" s="137"/>
       <c r="C36" s="94">
@@ -4069,7 +4068,7 @@
       <c r="S37" s="67"/>
       <c r="T37" s="67"/>
     </row>
-    <row r="38" spans="1:21" ht="409.6">
+    <row r="38" spans="1:21">
       <c r="A38" s="109" t="s">
         <v>54</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="409.6">
+    <row r="39" spans="1:21">
       <c r="A39" s="107">
         <v>0.33333333333333298</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="409.6">
+    <row r="40" spans="1:21">
       <c r="A40" s="107">
         <v>0.33333333333333298</v>
       </c>
@@ -4286,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="409.6">
+    <row r="41" spans="1:21">
       <c r="A41" s="107">
         <v>0.33333333333333298</v>
       </c>
@@ -4364,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="409.6">
+    <row r="42" spans="1:21">
       <c r="A42" s="107">
         <v>0.33333333333333298</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="409.6">
+    <row r="43" spans="1:21">
       <c r="A43" s="107">
         <v>0.33333333333333298</v>
       </c>
@@ -4595,7 +4594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="409.6">
+    <row r="45" spans="1:21">
       <c r="A45" s="133"/>
       <c r="B45" s="133"/>
       <c r="C45" s="94">
@@ -4698,7 +4697,7 @@
       <c r="S46" s="67"/>
       <c r="T46" s="67"/>
     </row>
-    <row r="47" spans="1:21" ht="409.6">
+    <row r="47" spans="1:21">
       <c r="A47" s="133"/>
       <c r="B47" s="133"/>
       <c r="C47" s="112" t="s">
@@ -4733,7 +4732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="409.6">
+    <row r="48" spans="1:21">
       <c r="A48" s="133"/>
       <c r="B48" s="133"/>
       <c r="C48" s="141"/>
@@ -4763,7 +4762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="409.6">
+    <row r="49" spans="1:21">
       <c r="A49" s="133"/>
       <c r="B49" s="133"/>
       <c r="C49" s="142"/>
@@ -4983,35 +4982,35 @@
         <v>0</v>
       </c>
       <c r="N53" s="76">
-        <f>+PRINTOUTS!F412</f>
+        <f>+PRINTOUTS!F415</f>
         <v>0</v>
       </c>
       <c r="O53" s="76">
-        <f>+PRINTOUTS!F438</f>
+        <f>+PRINTOUTS!F441</f>
         <v>0</v>
       </c>
       <c r="P53" s="76">
-        <f>+PRINTOUTS!F487</f>
+        <f>+PRINTOUTS!F490</f>
         <v>0</v>
       </c>
       <c r="Q53" s="76">
-        <f>+PRINTOUTS!F539</f>
+        <f>+PRINTOUTS!F542</f>
         <v>0</v>
       </c>
       <c r="R53" s="76">
-        <f>+PRINTOUTS!F588</f>
+        <f>+PRINTOUTS!F591</f>
         <v>0</v>
       </c>
       <c r="S53" s="76">
-        <f>+PRINTOUTS!F638</f>
+        <f>+PRINTOUTS!F641</f>
         <v>0</v>
       </c>
       <c r="T53" s="76">
-        <f>+PRINTOUTS!F689</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="409.6">
+        <f>+PRINTOUTS!F692</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="C54" s="19"/>
       <c r="D54" s="78"/>
       <c r="E54" s="77"/>
@@ -5031,7 +5030,7 @@
       <c r="S54" s="77"/>
       <c r="T54" s="77"/>
     </row>
-    <row r="55" spans="1:21" ht="409.6">
+    <row r="55" spans="1:21">
       <c r="D55" s="78"/>
       <c r="E55" s="77"/>
       <c r="F55" s="76">
@@ -5193,7 +5192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
@@ -7014,7 +7013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="409.6">
+    <row r="97" spans="1:6">
       <c r="A97" s="16"/>
       <c r="B97" s="26"/>
       <c r="C97" s="27"/>
@@ -7022,7 +7021,7 @@
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
     </row>
-    <row r="98" spans="1:6" ht="409.6">
+    <row r="98" spans="1:6">
       <c r="A98" s="27"/>
       <c r="B98" s="29"/>
       <c r="C98" s="27"/>
@@ -7030,7 +7029,7 @@
       <c r="E98" s="27"/>
       <c r="F98" s="27"/>
     </row>
-    <row r="99" spans="1:6" ht="409.6">
+    <row r="99" spans="1:6">
       <c r="A99" s="27"/>
       <c r="B99" s="29"/>
       <c r="C99" s="27"/>
@@ -7038,7 +7037,7 @@
       <c r="E99" s="27"/>
       <c r="F99" s="27"/>
     </row>
-    <row r="100" spans="1:6" ht="409.6">
+    <row r="100" spans="1:6">
       <c r="A100" s="27"/>
       <c r="B100" s="29"/>
       <c r="C100" s="27"/>
@@ -7046,7 +7045,7 @@
       <c r="E100" s="27"/>
       <c r="F100" s="27"/>
     </row>
-    <row r="101" spans="1:6" ht="409.6">
+    <row r="101" spans="1:6">
       <c r="A101" s="27"/>
       <c r="B101" s="29"/>
       <c r="C101" s="27"/>
@@ -7054,7 +7053,7 @@
       <c r="E101" s="27"/>
       <c r="F101" s="27"/>
     </row>
-    <row r="102" spans="1:6" ht="409.6">
+    <row r="102" spans="1:6">
       <c r="A102" s="27"/>
       <c r="B102" s="29"/>
       <c r="C102" s="27"/>
@@ -7062,7 +7061,7 @@
       <c r="E102" s="27"/>
       <c r="F102" s="27"/>
     </row>
-    <row r="103" spans="1:6" ht="409.6">
+    <row r="103" spans="1:6">
       <c r="A103" s="27"/>
       <c r="B103" s="29"/>
       <c r="C103" s="27"/>
@@ -7070,7 +7069,7 @@
       <c r="E103" s="27"/>
       <c r="F103" s="27"/>
     </row>
-    <row r="104" spans="1:6" ht="409.6">
+    <row r="104" spans="1:6">
       <c r="A104" s="27"/>
       <c r="B104" s="29"/>
       <c r="C104" s="27"/>
@@ -7078,7 +7077,7 @@
       <c r="E104" s="27"/>
       <c r="F104" s="27"/>
     </row>
-    <row r="105" spans="1:6" ht="409.6">
+    <row r="105" spans="1:6">
       <c r="A105" s="27"/>
       <c r="B105" s="29"/>
       <c r="C105" s="27"/>
@@ -7086,7 +7085,7 @@
       <c r="E105" s="27"/>
       <c r="F105" s="27"/>
     </row>
-    <row r="106" spans="1:6" ht="409.6">
+    <row r="106" spans="1:6">
       <c r="A106" s="27"/>
       <c r="B106" s="29"/>
       <c r="C106" s="27"/>
@@ -7094,7 +7093,7 @@
       <c r="E106" s="27"/>
       <c r="F106" s="27"/>
     </row>
-    <row r="107" spans="1:6" ht="409.6">
+    <row r="107" spans="1:6">
       <c r="A107" s="27"/>
       <c r="B107" s="29"/>
       <c r="C107" s="27"/>
@@ -7102,7 +7101,7 @@
       <c r="E107" s="27"/>
       <c r="F107" s="27"/>
     </row>
-    <row r="108" spans="1:6" ht="409.6">
+    <row r="108" spans="1:6">
       <c r="A108" s="27"/>
       <c r="B108" s="29"/>
       <c r="C108" s="27"/>
@@ -7110,7 +7109,7 @@
       <c r="E108" s="27"/>
       <c r="F108" s="27"/>
     </row>
-    <row r="109" spans="1:6" ht="409.6">
+    <row r="109" spans="1:6">
       <c r="A109" s="27"/>
       <c r="B109" s="29"/>
       <c r="C109" s="27"/>
@@ -7118,7 +7117,7 @@
       <c r="E109" s="27"/>
       <c r="F109" s="27"/>
     </row>
-    <row r="110" spans="1:6" ht="409.6">
+    <row r="110" spans="1:6">
       <c r="A110" s="27"/>
       <c r="B110" s="29"/>
       <c r="C110" s="27"/>
@@ -7126,7 +7125,7 @@
       <c r="E110" s="27"/>
       <c r="F110" s="27"/>
     </row>
-    <row r="111" spans="1:6" ht="409.6">
+    <row r="111" spans="1:6">
       <c r="A111" s="27"/>
       <c r="B111" s="29"/>
       <c r="C111" s="27"/>
@@ -7134,7 +7133,7 @@
       <c r="E111" s="27"/>
       <c r="F111" s="27"/>
     </row>
-    <row r="112" spans="1:6" ht="409.6">
+    <row r="112" spans="1:6">
       <c r="A112" s="27"/>
       <c r="B112" s="29"/>
       <c r="C112" s="27"/>
@@ -7142,7 +7141,7 @@
       <c r="E112" s="27"/>
       <c r="F112" s="27"/>
     </row>
-    <row r="113" spans="1:6" ht="409.6">
+    <row r="113" spans="1:6">
       <c r="A113" s="27"/>
       <c r="B113" s="29"/>
       <c r="C113" s="27"/>
@@ -7150,7 +7149,7 @@
       <c r="E113" s="27"/>
       <c r="F113" s="27"/>
     </row>
-    <row r="114" spans="1:6" ht="409.6">
+    <row r="114" spans="1:6">
       <c r="A114" s="27"/>
       <c r="B114" s="29"/>
       <c r="C114" s="27"/>
@@ -7158,7 +7157,7 @@
       <c r="E114" s="27"/>
       <c r="F114" s="27"/>
     </row>
-    <row r="115" spans="1:6" ht="409.6">
+    <row r="115" spans="1:6">
       <c r="A115" s="27"/>
       <c r="B115" s="29"/>
       <c r="C115" s="27"/>
@@ -7166,7 +7165,7 @@
       <c r="E115" s="27"/>
       <c r="F115" s="27"/>
     </row>
-    <row r="116" spans="1:6" ht="409.6">
+    <row r="116" spans="1:6">
       <c r="A116" s="27"/>
       <c r="B116" s="29"/>
       <c r="C116" s="27"/>
@@ -7174,7 +7173,7 @@
       <c r="E116" s="27"/>
       <c r="F116" s="27"/>
     </row>
-    <row r="117" spans="1:6" ht="409.6">
+    <row r="117" spans="1:6">
       <c r="A117" s="27"/>
       <c r="B117" s="29"/>
       <c r="C117" s="27"/>
@@ -7182,7 +7181,7 @@
       <c r="E117" s="27"/>
       <c r="F117" s="27"/>
     </row>
-    <row r="118" spans="1:6" ht="409.6">
+    <row r="118" spans="1:6">
       <c r="A118" s="27"/>
       <c r="B118" s="29"/>
       <c r="C118" s="27"/>
@@ -7190,7 +7189,7 @@
       <c r="E118" s="27"/>
       <c r="F118" s="27"/>
     </row>
-    <row r="119" spans="1:6" ht="409.6">
+    <row r="119" spans="1:6">
       <c r="A119" s="27"/>
       <c r="B119" s="29"/>
       <c r="C119" s="27"/>
@@ -7198,7 +7197,7 @@
       <c r="E119" s="27"/>
       <c r="F119" s="27"/>
     </row>
-    <row r="120" spans="1:6" ht="409.6">
+    <row r="120" spans="1:6">
       <c r="A120" s="27"/>
       <c r="B120" s="29"/>
       <c r="C120" s="27"/>
@@ -7206,7 +7205,7 @@
       <c r="E120" s="27"/>
       <c r="F120" s="27"/>
     </row>
-    <row r="121" spans="1:6" ht="409.6">
+    <row r="121" spans="1:6">
       <c r="A121" s="27"/>
       <c r="B121" s="29"/>
       <c r="C121" s="27"/>
@@ -7214,7 +7213,7 @@
       <c r="E121" s="27"/>
       <c r="F121" s="27"/>
     </row>
-    <row r="122" spans="1:6" ht="409.6">
+    <row r="122" spans="1:6">
       <c r="A122" s="27"/>
       <c r="B122" s="29"/>
       <c r="C122" s="27"/>
@@ -7222,7 +7221,7 @@
       <c r="E122" s="27"/>
       <c r="F122" s="27"/>
     </row>
-    <row r="123" spans="1:6" ht="409.6">
+    <row r="123" spans="1:6">
       <c r="A123" s="27"/>
       <c r="B123" s="29"/>
       <c r="C123" s="27"/>
@@ -7230,7 +7229,7 @@
       <c r="E123" s="27"/>
       <c r="F123" s="27"/>
     </row>
-    <row r="124" spans="1:6" ht="409.6">
+    <row r="124" spans="1:6">
       <c r="A124" s="27"/>
       <c r="B124" s="29"/>
       <c r="C124" s="27"/>
@@ -7238,7 +7237,7 @@
       <c r="E124" s="27"/>
       <c r="F124" s="27"/>
     </row>
-    <row r="125" spans="1:6" ht="409.6">
+    <row r="125" spans="1:6">
       <c r="A125" s="27"/>
       <c r="B125" s="29"/>
       <c r="C125" s="27"/>
@@ -7246,7 +7245,7 @@
       <c r="E125" s="27"/>
       <c r="F125" s="27"/>
     </row>
-    <row r="126" spans="1:6" ht="409.6">
+    <row r="126" spans="1:6">
       <c r="A126" s="27"/>
       <c r="B126" s="29"/>
       <c r="C126" s="27"/>
@@ -7254,7 +7253,7 @@
       <c r="E126" s="27"/>
       <c r="F126" s="27"/>
     </row>
-    <row r="127" spans="1:6" ht="409.6">
+    <row r="127" spans="1:6">
       <c r="A127" s="27"/>
       <c r="B127" s="29"/>
       <c r="C127" s="27"/>
@@ -7262,7 +7261,7 @@
       <c r="E127" s="27"/>
       <c r="F127" s="27"/>
     </row>
-    <row r="128" spans="1:6" ht="409.6">
+    <row r="128" spans="1:6">
       <c r="A128" s="27"/>
       <c r="B128" s="29"/>
       <c r="C128" s="27"/>
@@ -7270,7 +7269,7 @@
       <c r="E128" s="27"/>
       <c r="F128" s="27"/>
     </row>
-    <row r="129" spans="1:6" ht="409.6">
+    <row r="129" spans="1:6">
       <c r="A129" s="27"/>
       <c r="B129" s="29"/>
       <c r="C129" s="27"/>
@@ -7278,7 +7277,7 @@
       <c r="E129" s="27"/>
       <c r="F129" s="27"/>
     </row>
-    <row r="130" spans="1:6" ht="409.6">
+    <row r="130" spans="1:6">
       <c r="A130" s="27"/>
       <c r="B130" s="29"/>
       <c r="C130" s="27"/>
@@ -7286,7 +7285,7 @@
       <c r="E130" s="27"/>
       <c r="F130" s="27"/>
     </row>
-    <row r="131" spans="1:6" ht="409.6">
+    <row r="131" spans="1:6">
       <c r="A131" s="27"/>
       <c r="B131" s="29"/>
       <c r="C131" s="27"/>
@@ -7294,7 +7293,7 @@
       <c r="E131" s="27"/>
       <c r="F131" s="27"/>
     </row>
-    <row r="132" spans="1:6" ht="409.6">
+    <row r="132" spans="1:6">
       <c r="A132" s="27"/>
       <c r="B132" s="29"/>
       <c r="C132" s="27"/>
@@ -7302,7 +7301,7 @@
       <c r="E132" s="27"/>
       <c r="F132" s="27"/>
     </row>
-    <row r="133" spans="1:6" ht="409.6">
+    <row r="133" spans="1:6">
       <c r="A133" s="27"/>
       <c r="B133" s="29"/>
       <c r="C133" s="27"/>
@@ -7310,7 +7309,7 @@
       <c r="E133" s="27"/>
       <c r="F133" s="27"/>
     </row>
-    <row r="134" spans="1:6" ht="409.6">
+    <row r="134" spans="1:6">
       <c r="A134" s="27"/>
       <c r="B134" s="29"/>
       <c r="C134" s="27"/>
@@ -7318,7 +7317,7 @@
       <c r="E134" s="27"/>
       <c r="F134" s="27"/>
     </row>
-    <row r="135" spans="1:6" ht="409.6">
+    <row r="135" spans="1:6">
       <c r="A135" s="27"/>
       <c r="B135" s="29"/>
       <c r="C135" s="27"/>
@@ -7326,7 +7325,7 @@
       <c r="E135" s="27"/>
       <c r="F135" s="27"/>
     </row>
-    <row r="136" spans="1:6" ht="409.6">
+    <row r="136" spans="1:6">
       <c r="A136" s="27"/>
       <c r="B136" s="29"/>
       <c r="C136" s="27"/>
@@ -7334,7 +7333,7 @@
       <c r="E136" s="27"/>
       <c r="F136" s="27"/>
     </row>
-    <row r="137" spans="1:6" ht="409.6">
+    <row r="137" spans="1:6">
       <c r="A137" s="27"/>
       <c r="B137" s="29"/>
       <c r="C137" s="27"/>
@@ -7342,7 +7341,7 @@
       <c r="E137" s="27"/>
       <c r="F137" s="27"/>
     </row>
-    <row r="138" spans="1:6" ht="409.6">
+    <row r="138" spans="1:6">
       <c r="A138" s="27"/>
       <c r="B138" s="29"/>
       <c r="C138" s="27"/>
@@ -7374,10 +7373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P697"/>
+  <dimension ref="A2:P700"/>
   <sheetViews>
-    <sheetView topLeftCell="A619" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D651" sqref="D651:F651"/>
+    <sheetView tabSelected="1" topLeftCell="A396" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E413" sqref="E413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12151,16 +12150,18 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="4:6">
       <c r="D401" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E401" s="10"/>
+      <c r="E401" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="F401" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="4:6">
       <c r="D402" s="4" t="str">
         <f>+PAYROLL!D48</f>
         <v xml:space="preserve">SUN COV </v>
@@ -12171,893 +12172,945 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
-      <c r="D403" s="7"/>
-      <c r="E403" s="32"/>
-      <c r="F403" s="7"/>
-    </row>
-    <row r="404" spans="1:6">
-      <c r="D404" s="4"/>
-      <c r="E404" s="30"/>
+    <row r="403" spans="4:6">
+      <c r="D403" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E403" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F403" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="404" spans="4:6">
+      <c r="D404" s="4" t="str">
+        <f>+PAYROLL!$C$8</f>
+        <v>COV SCHL</v>
+      </c>
+      <c r="E404" s="30">
+        <f>COVENANT!D12</f>
+        <v>0</v>
+      </c>
       <c r="F404" s="5">
-        <f>+PAYROLL!N49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6">
-      <c r="D405" s="7"/>
-      <c r="E405" s="32"/>
-      <c r="F405" s="7"/>
-    </row>
-    <row r="406" spans="1:6">
-      <c r="D406" s="4"/>
-      <c r="E406" s="30"/>
-      <c r="F406" s="6"/>
-    </row>
-    <row r="407" spans="1:6">
-      <c r="D407" s="7"/>
-      <c r="E407" s="32"/>
-      <c r="F407" s="7"/>
-    </row>
-    <row r="408" spans="1:6">
-      <c r="D408" s="4"/>
-      <c r="E408" s="30"/>
-      <c r="F408" s="6"/>
-    </row>
-    <row r="409" spans="1:6">
-      <c r="D409" s="7"/>
-      <c r="E409" s="32"/>
-      <c r="F409" s="7"/>
-    </row>
-    <row r="410" spans="1:6">
-      <c r="D410" s="4"/>
-      <c r="E410" s="30"/>
-      <c r="F410" s="6"/>
-    </row>
-    <row r="411" spans="1:6">
-      <c r="E411" s="33"/>
-    </row>
-    <row r="412" spans="1:6">
-      <c r="D412" s="15" t="s">
+        <f>PAYROLL!N8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="4:6">
+      <c r="D405" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E405" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F405" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="406" spans="4:6">
+      <c r="D406" s="4" t="str">
+        <f>+PAYROLL!$C$17</f>
+        <v>COV SCHL</v>
+      </c>
+      <c r="E406" s="30">
+        <f>COVENANT!D30</f>
+        <v>0</v>
+      </c>
+      <c r="F406" s="5">
+        <f>PAYROLL!N17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="4:6">
+      <c r="D407" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E407" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F407" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408" spans="4:6">
+      <c r="D408" s="4" t="str">
+        <f>+PAYROLL!$C$26</f>
+        <v>COV SCHL</v>
+      </c>
+      <c r="E408" s="30">
+        <f>COVENANT!D48</f>
+        <v>0</v>
+      </c>
+      <c r="F408" s="6">
+        <f>PAYROLL!N26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="4:6">
+      <c r="D409" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E409" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F409" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" spans="4:6">
+      <c r="D410" s="4" t="str">
+        <f>+PAYROLL!$C$35</f>
+        <v>COV SCHL</v>
+      </c>
+      <c r="E410" s="30">
+        <f>COVENANT!D66</f>
+        <v>0</v>
+      </c>
+      <c r="F410" s="6">
+        <f>PAYROLL!N35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="4:6">
+      <c r="D411" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E411" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F411" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412" spans="4:6">
+      <c r="D412" s="4" t="str">
+        <f>+PAYROLL!$C$44</f>
+        <v>COV SCHL</v>
+      </c>
+      <c r="E412" s="30">
+        <f>COVENANT!D84</f>
+        <v>0</v>
+      </c>
+      <c r="F412" s="6">
+        <f>PAYROLL!N44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="4:6">
+      <c r="E413" s="33"/>
+    </row>
+    <row r="414" spans="4:6">
+      <c r="E414" s="33"/>
+    </row>
+    <row r="415" spans="4:6">
+      <c r="D415" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E412" s="34"/>
-      <c r="F412" s="8">
+      <c r="E415" s="34"/>
+      <c r="F415" s="8">
         <f>SUM(F401:F410)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
-      <c r="E413" s="33"/>
-    </row>
-    <row r="414" spans="1:6">
-      <c r="A414" s="102"/>
-      <c r="B414" s="39" t="s">
+    <row r="416" spans="4:6">
+      <c r="E416" s="33"/>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" s="102"/>
+      <c r="B417" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C414" s="39"/>
-      <c r="E414" s="103"/>
-    </row>
-    <row r="415" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A415" s="102"/>
-      <c r="B415" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C415" s="41"/>
-      <c r="D415" s="41"/>
-      <c r="E415" s="103"/>
-    </row>
-    <row r="416" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A416" s="102"/>
-      <c r="B416" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C416" s="41"/>
-      <c r="D416" s="41"/>
-      <c r="E416" s="103"/>
-    </row>
-    <row r="417" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A417" s="102"/>
-      <c r="B417" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C417" s="41"/>
-      <c r="D417" s="41"/>
+      <c r="C417" s="39"/>
       <c r="E417" s="103"/>
     </row>
     <row r="418" spans="1:6" ht="13.5" thickBot="1">
       <c r="A418" s="102"/>
       <c r="B418" s="40" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C418" s="41"/>
       <c r="D418" s="41"/>
-      <c r="E418" s="104"/>
+      <c r="E418" s="103"/>
     </row>
     <row r="419" spans="1:6" ht="13.5" thickBot="1">
       <c r="A419" s="102"/>
       <c r="B419" s="40" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C419" s="41"/>
       <c r="D419" s="41"/>
-      <c r="E419" s="104"/>
-    </row>
-    <row r="420" spans="1:6">
+      <c r="E419" s="103"/>
+    </row>
+    <row r="420" spans="1:6" ht="13.5" thickBot="1">
       <c r="A420" s="102"/>
-      <c r="B420" s="102"/>
-      <c r="C420" s="102"/>
-      <c r="D420" s="102"/>
-      <c r="E420" s="104"/>
-    </row>
-    <row r="425" spans="1:6" ht="30.75" thickBot="1">
-      <c r="D425" s="163" t="s">
+      <c r="B420" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C420" s="41"/>
+      <c r="D420" s="41"/>
+      <c r="E420" s="103"/>
+    </row>
+    <row r="421" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A421" s="102"/>
+      <c r="B421" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C421" s="41"/>
+      <c r="D421" s="41"/>
+      <c r="E421" s="104"/>
+    </row>
+    <row r="422" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A422" s="102"/>
+      <c r="B422" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C422" s="41"/>
+      <c r="D422" s="41"/>
+      <c r="E422" s="104"/>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" s="102"/>
+      <c r="B423" s="102"/>
+      <c r="C423" s="102"/>
+      <c r="D423" s="102"/>
+      <c r="E423" s="104"/>
+    </row>
+    <row r="428" spans="1:6" ht="30.75" thickBot="1">
+      <c r="D428" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="E425" s="163"/>
-      <c r="F425" s="163"/>
-    </row>
-    <row r="426" spans="1:6" ht="18.75" thickBot="1">
-      <c r="D426" s="122" t="str">
+      <c r="E428" s="163"/>
+      <c r="F428" s="163"/>
+    </row>
+    <row r="429" spans="1:6" ht="18.75" thickBot="1">
+      <c r="D429" s="122" t="str">
         <f>+PAYROLL!$D$1</f>
         <v>MARCH</v>
       </c>
-      <c r="E426" s="90" t="str">
+      <c r="E429" s="90" t="str">
         <f>+PAYROLL!$F$1</f>
         <v>7 - 11</v>
       </c>
-      <c r="F426" s="91">
+      <c r="F429" s="91">
         <f>+PAYROLL!$I$1</f>
         <v>2016</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
-      <c r="D427" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E427" s="10" t="s">
+    <row r="430" spans="1:6">
+      <c r="D430" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E430" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F427" s="9" t="s">
+      <c r="F430" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
-      <c r="D428" s="4" t="str">
+    <row r="431" spans="1:6">
+      <c r="D431" s="4" t="str">
         <f>+PAYROLL!$C$8</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E428" s="30">
+      <c r="E431" s="30">
         <f>+PAYROLL!O8/PAY!$C$12</f>
         <v>0</v>
       </c>
-      <c r="F428" s="5">
+      <c r="F431" s="5">
         <f>+PAYROLL!O8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
-      <c r="D429" s="7" t="s">
+    <row r="432" spans="1:6">
+      <c r="D432" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E429" s="32" t="s">
+      <c r="E432" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F429" s="7" t="s">
+      <c r="F432" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
-      <c r="D430" s="4" t="str">
+    <row r="433" spans="2:6">
+      <c r="D433" s="4" t="str">
         <f>+PAYROLL!$C$17</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E430" s="30">
+      <c r="E433" s="30">
         <f>+PAYROLL!O17/PAY!$C$12</f>
         <v>0</v>
       </c>
-      <c r="F430" s="5">
+      <c r="F433" s="5">
         <f>+PAYROLL!O17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
-      <c r="D431" s="7" t="s">
+    <row r="434" spans="2:6">
+      <c r="D434" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E431" s="32" t="s">
+      <c r="E434" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F431" s="7" t="s">
+      <c r="F434" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
-      <c r="D432" s="4" t="str">
+    <row r="435" spans="2:6">
+      <c r="D435" s="4" t="str">
         <f>+PAYROLL!$C$26</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E432" s="30">
+      <c r="E435" s="30">
         <f>+PAYROLL!O26/PAY!$C$12</f>
         <v>0</v>
       </c>
-      <c r="F432" s="6">
+      <c r="F435" s="6">
         <f>+PAYROLL!O26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="2:6">
-      <c r="D433" s="7" t="s">
+    <row r="436" spans="2:6">
+      <c r="D436" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E433" s="32" t="s">
+      <c r="E436" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F433" s="7" t="s">
+      <c r="F436" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="2:6">
-      <c r="D434" s="4" t="str">
+    <row r="437" spans="2:6">
+      <c r="D437" s="4" t="str">
         <f>+PAYROLL!$C$35</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E434" s="30">
+      <c r="E437" s="30">
         <f>+PAYROLL!O35/PAY!$C$12</f>
         <v>0</v>
       </c>
-      <c r="F434" s="6">
+      <c r="F437" s="6">
         <f>+PAYROLL!O35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="2:6">
-      <c r="D435" s="7" t="s">
+    <row r="438" spans="2:6">
+      <c r="D438" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E435" s="32" t="s">
+      <c r="E438" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F435" s="7" t="s">
+      <c r="F438" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="2:6">
-      <c r="D436" s="4" t="str">
+    <row r="439" spans="2:6">
+      <c r="D439" s="4" t="str">
         <f>+PAYROLL!$C$44</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E436" s="30">
+      <c r="E439" s="30">
         <f>+PAYROLL!O44/PAY!$C$12</f>
         <v>0</v>
       </c>
-      <c r="F436" s="6">
+      <c r="F439" s="6">
         <f>+PAYROLL!O44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="2:6">
-      <c r="E437" s="33"/>
-    </row>
-    <row r="438" spans="2:6">
-      <c r="D438" s="15" t="s">
+    <row r="440" spans="2:6">
+      <c r="E440" s="33"/>
+    </row>
+    <row r="441" spans="2:6">
+      <c r="D441" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E438" s="34">
-        <f>SUM(E428:E436)</f>
-        <v>0</v>
-      </c>
-      <c r="F438" s="8">
-        <f>SUM(F428:F436)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="2:6">
-      <c r="B439" s="102"/>
-      <c r="C439" s="102"/>
-      <c r="D439" s="102"/>
-      <c r="E439" s="103"/>
-    </row>
-    <row r="440" spans="2:6">
-      <c r="B440" s="39" t="s">
+      <c r="E441" s="34">
+        <f>SUM(E431:E439)</f>
+        <v>0</v>
+      </c>
+      <c r="F441" s="8">
+        <f>SUM(F431:F439)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="2:6">
+      <c r="B442" s="102"/>
+      <c r="C442" s="102"/>
+      <c r="D442" s="102"/>
+      <c r="E442" s="103"/>
+    </row>
+    <row r="443" spans="2:6">
+      <c r="B443" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C440" s="39"/>
-      <c r="E440" s="103"/>
-    </row>
-    <row r="441" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B441" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C441" s="41"/>
-      <c r="D441" s="41"/>
-      <c r="E441" s="103"/>
-    </row>
-    <row r="442" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B442" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C442" s="41"/>
-      <c r="D442" s="41"/>
-      <c r="E442" s="103"/>
-    </row>
-    <row r="443" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B443" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C443" s="41"/>
-      <c r="D443" s="41"/>
-      <c r="E443" s="104"/>
+      <c r="C443" s="39"/>
+      <c r="E443" s="103"/>
     </row>
     <row r="444" spans="2:6" ht="13.5" thickBot="1">
       <c r="B444" s="40" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C444" s="41"/>
       <c r="D444" s="41"/>
-      <c r="E444" s="104"/>
+      <c r="E444" s="103"/>
     </row>
     <row r="445" spans="2:6" ht="13.5" thickBot="1">
       <c r="B445" s="40" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C445" s="41"/>
       <c r="D445" s="41"/>
-      <c r="E445" s="104"/>
-    </row>
-    <row r="449" spans="4:6" ht="30.75" thickBot="1">
-      <c r="D449" s="163" t="s">
+      <c r="E445" s="103"/>
+    </row>
+    <row r="446" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B446" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C446" s="41"/>
+      <c r="D446" s="41"/>
+      <c r="E446" s="104"/>
+    </row>
+    <row r="447" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B447" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C447" s="41"/>
+      <c r="D447" s="41"/>
+      <c r="E447" s="104"/>
+    </row>
+    <row r="448" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B448" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C448" s="41"/>
+      <c r="D448" s="41"/>
+      <c r="E448" s="104"/>
+    </row>
+    <row r="452" spans="4:6" ht="30.75" thickBot="1">
+      <c r="D452" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="E449" s="163"/>
-      <c r="F449" s="163"/>
-    </row>
-    <row r="450" spans="4:6" ht="18.75" thickBot="1">
-      <c r="D450" s="122" t="str">
+      <c r="E452" s="163"/>
+      <c r="F452" s="163"/>
+    </row>
+    <row r="453" spans="4:6" ht="18.75" thickBot="1">
+      <c r="D453" s="122" t="str">
         <f>+PAYROLL!$D$1</f>
         <v>MARCH</v>
       </c>
-      <c r="E450" s="90" t="str">
+      <c r="E453" s="90" t="str">
         <f>+PAYROLL!$F$1</f>
         <v>7 - 11</v>
       </c>
-      <c r="F450" s="91">
+      <c r="F453" s="91">
         <f>+PAYROLL!$I$1</f>
         <v>2016</v>
       </c>
     </row>
-    <row r="451" spans="4:6">
-      <c r="D451" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E451" s="31" t="s">
+    <row r="454" spans="4:6">
+      <c r="D454" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E454" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F451" s="9" t="s">
+      <c r="F454" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="452" spans="4:6">
-      <c r="D452" s="87" t="str">
-        <f>+T(PAYROLL!$D$3)</f>
-        <v/>
-      </c>
-      <c r="E452" s="30">
-        <f>+PAYROLL!P3/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F452" s="6">
-        <f>+PAYROLL!P3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="4:6">
-      <c r="D453" s="87" t="str">
-        <f>+T(PAYROLL!$D$4)</f>
-        <v/>
-      </c>
-      <c r="E453" s="30">
-        <f>+PAYROLL!P4/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F453" s="6">
-        <f>+PAYROLL!P4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="4:6">
-      <c r="D454" s="87" t="str">
-        <f>+T(PAYROLL!$D$5)</f>
-        <v/>
-      </c>
-      <c r="E454" s="30">
-        <f>+PAYROLL!P5/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F454" s="6">
-        <f>+PAYROLL!P5</f>
-        <v>0</v>
       </c>
     </row>
     <row r="455" spans="4:6">
       <c r="D455" s="87" t="str">
-        <f>+T(PAYROLL!$D$6)</f>
+        <f>+T(PAYROLL!$D$3)</f>
         <v/>
       </c>
       <c r="E455" s="30">
-        <f>+PAYROLL!P6/PAY!$C$13</f>
+        <f>+PAYROLL!P3/PAY!$C$13</f>
         <v>0</v>
       </c>
       <c r="F455" s="6">
-        <f>+PAYROLL!P6</f>
+        <f>+PAYROLL!P3</f>
         <v>0</v>
       </c>
     </row>
     <row r="456" spans="4:6">
       <c r="D456" s="87" t="str">
-        <f>+T(PAYROLL!$D$7)</f>
+        <f>+T(PAYROLL!$D$4)</f>
         <v/>
       </c>
       <c r="E456" s="30">
-        <f>+PAYROLL!P7/PAY!$C$13</f>
+        <f>+PAYROLL!P4/PAY!$C$13</f>
         <v>0</v>
       </c>
       <c r="F456" s="6">
-        <f>+PAYROLL!P7</f>
+        <f>+PAYROLL!P4</f>
         <v>0</v>
       </c>
     </row>
     <row r="457" spans="4:6">
       <c r="D457" s="87" t="str">
+        <f>+T(PAYROLL!$D$5)</f>
+        <v/>
+      </c>
+      <c r="E457" s="30">
+        <f>+PAYROLL!P5/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F457" s="6">
+        <f>+PAYROLL!P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="4:6">
+      <c r="D458" s="87" t="str">
+        <f>+T(PAYROLL!$D$6)</f>
+        <v/>
+      </c>
+      <c r="E458" s="30">
+        <f>+PAYROLL!P6/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F458" s="6">
+        <f>+PAYROLL!P6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="4:6">
+      <c r="D459" s="87" t="str">
+        <f>+T(PAYROLL!$D$7)</f>
+        <v/>
+      </c>
+      <c r="E459" s="30">
+        <f>+PAYROLL!P7/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F459" s="6">
+        <f>+PAYROLL!P7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="4:6">
+      <c r="D460" s="87" t="str">
         <f>+T(PAYROLL!$C$8)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E457" s="30">
+      <c r="E460" s="30">
         <f>+PAYROLL!P8/PAY!$C$13</f>
         <v>0</v>
       </c>
-      <c r="F457" s="6">
+      <c r="F460" s="6">
         <f>+PAYROLL!P8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="4:6">
-      <c r="D458" s="7" t="s">
+    <row r="461" spans="4:6">
+      <c r="D461" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E458" s="32" t="s">
+      <c r="E461" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F458" s="7" t="s">
+      <c r="F461" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="459" spans="4:6">
-      <c r="D459" s="87" t="str">
-        <f>+T(PAYROLL!$D$12)</f>
-        <v/>
-      </c>
-      <c r="E459" s="30">
-        <f>+PAYROLL!P12/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F459" s="6">
-        <f>+PAYROLL!P12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="4:6">
-      <c r="D460" s="87" t="str">
-        <f>+T(PAYROLL!$D$13)</f>
-        <v/>
-      </c>
-      <c r="E460" s="30">
-        <f>+PAYROLL!P13/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F460" s="6">
-        <f>+PAYROLL!P13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="4:6">
-      <c r="D461" s="87" t="str">
-        <f>+T(PAYROLL!$D$14)</f>
-        <v/>
-      </c>
-      <c r="E461" s="30">
-        <f>+PAYROLL!P14/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F461" s="6">
-        <f>+PAYROLL!P14</f>
-        <v>0</v>
       </c>
     </row>
     <row r="462" spans="4:6">
       <c r="D462" s="87" t="str">
-        <f>+T(PAYROLL!$D$15)</f>
+        <f>+T(PAYROLL!$D$12)</f>
         <v/>
       </c>
       <c r="E462" s="30">
-        <f>+PAYROLL!P15/PAY!$C$13</f>
+        <f>+PAYROLL!P12/PAY!$C$13</f>
         <v>0</v>
       </c>
       <c r="F462" s="6">
-        <f>+PAYROLL!P15</f>
+        <f>+PAYROLL!P12</f>
         <v>0</v>
       </c>
     </row>
     <row r="463" spans="4:6">
       <c r="D463" s="87" t="str">
-        <f>+T(PAYROLL!$D$16)</f>
+        <f>+T(PAYROLL!$D$13)</f>
         <v/>
       </c>
       <c r="E463" s="30">
-        <f>+PAYROLL!P16/PAY!$C$13</f>
+        <f>+PAYROLL!P13/PAY!$C$13</f>
         <v>0</v>
       </c>
       <c r="F463" s="6">
-        <f>+PAYROLL!P16</f>
+        <f>+PAYROLL!P13</f>
         <v>0</v>
       </c>
     </row>
     <row r="464" spans="4:6">
       <c r="D464" s="87" t="str">
+        <f>+T(PAYROLL!$D$14)</f>
+        <v/>
+      </c>
+      <c r="E464" s="30">
+        <f>+PAYROLL!P14/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F464" s="6">
+        <f>+PAYROLL!P14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="4:6">
+      <c r="D465" s="87" t="str">
+        <f>+T(PAYROLL!$D$15)</f>
+        <v/>
+      </c>
+      <c r="E465" s="30">
+        <f>+PAYROLL!P15/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F465" s="6">
+        <f>+PAYROLL!P15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="4:6">
+      <c r="D466" s="87" t="str">
+        <f>+T(PAYROLL!$D$16)</f>
+        <v/>
+      </c>
+      <c r="E466" s="30">
+        <f>+PAYROLL!P16/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F466" s="6">
+        <f>+PAYROLL!P16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="4:6">
+      <c r="D467" s="87" t="str">
         <f>+T(PAYROLL!$C$17)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E464" s="30">
+      <c r="E467" s="30">
         <f>+PAYROLL!P17/PAY!$C$13</f>
         <v>0</v>
       </c>
-      <c r="F464" s="6">
+      <c r="F467" s="6">
         <f>+PAYROLL!P17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="4:6">
-      <c r="D465" s="7" t="s">
+    <row r="468" spans="4:6">
+      <c r="D468" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E465" s="32" t="s">
+      <c r="E468" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F465" s="7" t="s">
+      <c r="F468" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="466" spans="4:6">
-      <c r="D466" s="87" t="str">
-        <f>+T(PAYROLL!$D$21)</f>
-        <v/>
-      </c>
-      <c r="E466" s="30">
-        <f>+PAYROLL!P21/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F466" s="6">
-        <f>+PAYROLL!P21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="4:6">
-      <c r="D467" s="87" t="str">
-        <f>+T(PAYROLL!$D$22)</f>
-        <v/>
-      </c>
-      <c r="E467" s="30">
-        <f>+PAYROLL!P22/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F467" s="6">
-        <f>+PAYROLL!P22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="4:6">
-      <c r="D468" s="87" t="str">
-        <f>+T(PAYROLL!$D$23)</f>
-        <v/>
-      </c>
-      <c r="E468" s="30">
-        <f>+PAYROLL!P23/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F468" s="6">
-        <f>+PAYROLL!P23</f>
-        <v>0</v>
       </c>
     </row>
     <row r="469" spans="4:6">
       <c r="D469" s="87" t="str">
-        <f>+T(PAYROLL!$D$24)</f>
+        <f>+T(PAYROLL!$D$21)</f>
         <v/>
       </c>
       <c r="E469" s="30">
-        <f>+PAYROLL!P24/PAY!$C$13</f>
+        <f>+PAYROLL!P21/PAY!$C$13</f>
         <v>0</v>
       </c>
       <c r="F469" s="6">
-        <f>+PAYROLL!P24</f>
+        <f>+PAYROLL!P21</f>
         <v>0</v>
       </c>
     </row>
     <row r="470" spans="4:6">
       <c r="D470" s="87" t="str">
-        <f>+T(PAYROLL!$D$25)</f>
+        <f>+T(PAYROLL!$D$22)</f>
         <v/>
       </c>
       <c r="E470" s="30">
-        <f>+PAYROLL!P25/PAY!$C$13</f>
+        <f>+PAYROLL!P22/PAY!$C$13</f>
         <v>0</v>
       </c>
       <c r="F470" s="6">
-        <f>+PAYROLL!P25</f>
+        <f>+PAYROLL!P22</f>
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="4:6">
       <c r="D471" s="87" t="str">
+        <f>+T(PAYROLL!$D$23)</f>
+        <v/>
+      </c>
+      <c r="E471" s="30">
+        <f>+PAYROLL!P23/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F471" s="6">
+        <f>+PAYROLL!P23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="4:6">
+      <c r="D472" s="87" t="str">
+        <f>+T(PAYROLL!$D$24)</f>
+        <v/>
+      </c>
+      <c r="E472" s="30">
+        <f>+PAYROLL!P24/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F472" s="6">
+        <f>+PAYROLL!P24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="4:6">
+      <c r="D473" s="87" t="str">
+        <f>+T(PAYROLL!$D$25)</f>
+        <v/>
+      </c>
+      <c r="E473" s="30">
+        <f>+PAYROLL!P25/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F473" s="6">
+        <f>+PAYROLL!P25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="4:6">
+      <c r="D474" s="87" t="str">
         <f>+T(PAYROLL!$C$26)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E471" s="30">
+      <c r="E474" s="30">
         <f>+PAYROLL!P26/PAY!$C$13</f>
         <v>0</v>
       </c>
-      <c r="F471" s="6">
+      <c r="F474" s="6">
         <f>+PAYROLL!P26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="4:6">
-      <c r="D472" s="7" t="s">
+    <row r="475" spans="4:6">
+      <c r="D475" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E472" s="32" t="s">
+      <c r="E475" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F472" s="7" t="s">
+      <c r="F475" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="473" spans="4:6">
-      <c r="D473" s="87" t="str">
-        <f>+T(PAYROLL!$D$30)</f>
-        <v/>
-      </c>
-      <c r="E473" s="30">
-        <f>+PAYROLL!P30/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F473" s="6">
-        <f>+PAYROLL!P30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="4:6">
-      <c r="D474" s="87" t="str">
-        <f>+T(PAYROLL!$D$31)</f>
-        <v/>
-      </c>
-      <c r="E474" s="30">
-        <f>+PAYROLL!P31/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F474" s="6">
-        <f>+PAYROLL!P31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="4:6">
-      <c r="D475" s="87" t="str">
-        <f>+T(PAYROLL!$D$32)</f>
-        <v/>
-      </c>
-      <c r="E475" s="30">
-        <f>+PAYROLL!P32/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F475" s="6">
-        <f>+PAYROLL!P32</f>
-        <v>0</v>
       </c>
     </row>
     <row r="476" spans="4:6">
       <c r="D476" s="87" t="str">
-        <f>+T(PAYROLL!$D$33)</f>
+        <f>+T(PAYROLL!$D$30)</f>
         <v/>
       </c>
       <c r="E476" s="30">
-        <f>+PAYROLL!P33/PAY!$C$13</f>
+        <f>+PAYROLL!P30/PAY!$C$13</f>
         <v>0</v>
       </c>
       <c r="F476" s="6">
-        <f>+PAYROLL!P33</f>
+        <f>+PAYROLL!P30</f>
         <v>0</v>
       </c>
     </row>
     <row r="477" spans="4:6">
       <c r="D477" s="87" t="str">
-        <f>+T(PAYROLL!$D$34)</f>
+        <f>+T(PAYROLL!$D$31)</f>
         <v/>
       </c>
       <c r="E477" s="30">
-        <f>+PAYROLL!P34/PAY!$C$13</f>
+        <f>+PAYROLL!P31/PAY!$C$13</f>
         <v>0</v>
       </c>
       <c r="F477" s="6">
-        <f>+PAYROLL!P34</f>
+        <f>+PAYROLL!P31</f>
         <v>0</v>
       </c>
     </row>
     <row r="478" spans="4:6">
       <c r="D478" s="87" t="str">
+        <f>+T(PAYROLL!$D$32)</f>
+        <v/>
+      </c>
+      <c r="E478" s="30">
+        <f>+PAYROLL!P32/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F478" s="6">
+        <f>+PAYROLL!P32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="4:6">
+      <c r="D479" s="87" t="str">
+        <f>+T(PAYROLL!$D$33)</f>
+        <v/>
+      </c>
+      <c r="E479" s="30">
+        <f>+PAYROLL!P33/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F479" s="6">
+        <f>+PAYROLL!P33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="4:6">
+      <c r="D480" s="87" t="str">
+        <f>+T(PAYROLL!$D$34)</f>
+        <v/>
+      </c>
+      <c r="E480" s="30">
+        <f>+PAYROLL!P34/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F480" s="6">
+        <f>+PAYROLL!P34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="2:8">
+      <c r="D481" s="87" t="str">
         <f>+T(PAYROLL!$C$35)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E478" s="30">
+      <c r="E481" s="30">
         <f>+PAYROLL!P35/PAY!$C$13</f>
         <v>0</v>
       </c>
-      <c r="F478" s="6">
+      <c r="F481" s="6">
         <f>+PAYROLL!P35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="4:6">
-      <c r="D479" s="7" t="s">
+    <row r="482" spans="2:8">
+      <c r="D482" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E479" s="32" t="s">
+      <c r="E482" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F479" s="7" t="s">
+      <c r="F482" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="480" spans="4:6">
-      <c r="D480" s="87" t="str">
-        <f>+T(PAYROLL!$D$39)</f>
-        <v/>
-      </c>
-      <c r="E480" s="30">
-        <f>+PAYROLL!P39/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F480" s="6">
-        <f>+PAYROLL!P39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="2:8">
-      <c r="D481" s="87" t="str">
-        <f>+T(PAYROLL!$D$40)</f>
-        <v/>
-      </c>
-      <c r="E481" s="30">
-        <f>+PAYROLL!P40/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F481" s="6">
-        <f>+PAYROLL!P40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="2:8">
-      <c r="D482" s="87" t="str">
-        <f>+T(PAYROLL!$D$41)</f>
-        <v/>
-      </c>
-      <c r="E482" s="30">
-        <f>+PAYROLL!P41/PAY!$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="F482" s="6">
-        <f>+PAYROLL!P41</f>
-        <v>0</v>
       </c>
     </row>
     <row r="483" spans="2:8">
       <c r="D483" s="87" t="str">
-        <f>+T(PAYROLL!$D$42)</f>
+        <f>+T(PAYROLL!$D$39)</f>
         <v/>
       </c>
       <c r="E483" s="30">
-        <f>+PAYROLL!P42/PAY!$C$13</f>
+        <f>+PAYROLL!P39/PAY!$C$13</f>
         <v>0</v>
       </c>
       <c r="F483" s="6">
-        <f>+PAYROLL!P42</f>
+        <f>+PAYROLL!P39</f>
         <v>0</v>
       </c>
     </row>
     <row r="484" spans="2:8">
       <c r="D484" s="87" t="str">
-        <f>+T(PAYROLL!$D$43)</f>
+        <f>+T(PAYROLL!$D$40)</f>
         <v/>
       </c>
       <c r="E484" s="30">
-        <f>+PAYROLL!P43/PAY!$C$13</f>
+        <f>+PAYROLL!P40/PAY!$C$13</f>
         <v>0</v>
       </c>
       <c r="F484" s="6">
-        <f>+PAYROLL!P43</f>
+        <f>+PAYROLL!P40</f>
         <v>0</v>
       </c>
     </row>
     <row r="485" spans="2:8">
       <c r="D485" s="87" t="str">
+        <f>+T(PAYROLL!$D$41)</f>
+        <v/>
+      </c>
+      <c r="E485" s="30">
+        <f>+PAYROLL!P41/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F485" s="6">
+        <f>+PAYROLL!P41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="2:8">
+      <c r="D486" s="87" t="str">
+        <f>+T(PAYROLL!$D$42)</f>
+        <v/>
+      </c>
+      <c r="E486" s="30">
+        <f>+PAYROLL!P42/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F486" s="6">
+        <f>+PAYROLL!P42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="2:8">
+      <c r="D487" s="87" t="str">
+        <f>+T(PAYROLL!$D$43)</f>
+        <v/>
+      </c>
+      <c r="E487" s="30">
+        <f>+PAYROLL!P43/PAY!$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="F487" s="6">
+        <f>+PAYROLL!P43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="2:8">
+      <c r="D488" s="87" t="str">
         <f>+T(PAYROLL!$C$44)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E485" s="30">
+      <c r="E488" s="30">
         <f>+PAYROLL!P44/PAY!$C$13</f>
         <v>0</v>
       </c>
-      <c r="F485" s="6">
+      <c r="F488" s="6">
         <f>+PAYROLL!P44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="2:8">
-      <c r="E486" s="33"/>
-    </row>
-    <row r="487" spans="2:8">
-      <c r="D487" s="15" t="s">
+    <row r="489" spans="2:8">
+      <c r="E489" s="33"/>
+    </row>
+    <row r="490" spans="2:8">
+      <c r="D490" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E487" s="80">
-        <f>SUM(E452:E485)</f>
-        <v>0</v>
-      </c>
-      <c r="F487" s="8">
-        <f>SUM(F452:F485)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="2:8">
-      <c r="E488" s="33"/>
-    </row>
-    <row r="489" spans="2:8">
-      <c r="B489" s="39" t="s">
+      <c r="E490" s="80">
+        <f>SUM(E455:E488)</f>
+        <v>0</v>
+      </c>
+      <c r="F490" s="8">
+        <f>SUM(F455:F488)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="2:8">
+      <c r="E491" s="33"/>
+    </row>
+    <row r="492" spans="2:8">
+      <c r="B492" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C489" s="39"/>
-      <c r="E489" s="86"/>
-      <c r="F489" s="3"/>
-      <c r="G489" s="3"/>
-      <c r="H489" s="3"/>
-    </row>
-    <row r="490" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B490" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C490" s="41"/>
-      <c r="D490" s="41"/>
-      <c r="E490" s="86"/>
-      <c r="F490" s="3"/>
-      <c r="G490" s="3"/>
-      <c r="H490" s="3"/>
-    </row>
-    <row r="491" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B491" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C491" s="41"/>
-      <c r="D491" s="41"/>
-      <c r="E491" s="86"/>
-      <c r="F491" s="3"/>
-      <c r="G491" s="3"/>
-      <c r="H491" s="3"/>
-    </row>
-    <row r="492" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B492" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C492" s="41"/>
-      <c r="D492" s="41"/>
+      <c r="C492" s="39"/>
       <c r="E492" s="86"/>
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
@@ -13065,2323 +13118,2362 @@
     </row>
     <row r="493" spans="2:8" ht="13.5" thickBot="1">
       <c r="B493" s="40" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C493" s="41"/>
       <c r="D493" s="41"/>
+      <c r="E493" s="86"/>
+      <c r="F493" s="3"/>
+      <c r="G493" s="3"/>
+      <c r="H493" s="3"/>
     </row>
     <row r="494" spans="2:8" ht="13.5" thickBot="1">
       <c r="B494" s="40" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C494" s="41"/>
       <c r="D494" s="41"/>
-    </row>
-    <row r="498" spans="4:6" ht="30.75" thickBot="1">
-      <c r="D498" s="163" t="s">
+      <c r="E494" s="86"/>
+      <c r="F494" s="3"/>
+      <c r="G494" s="3"/>
+      <c r="H494" s="3"/>
+    </row>
+    <row r="495" spans="2:8" ht="13.5" thickBot="1">
+      <c r="B495" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C495" s="41"/>
+      <c r="D495" s="41"/>
+      <c r="E495" s="86"/>
+      <c r="F495" s="3"/>
+      <c r="G495" s="3"/>
+      <c r="H495" s="3"/>
+    </row>
+    <row r="496" spans="2:8" ht="13.5" thickBot="1">
+      <c r="B496" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C496" s="41"/>
+      <c r="D496" s="41"/>
+    </row>
+    <row r="497" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B497" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C497" s="41"/>
+      <c r="D497" s="41"/>
+    </row>
+    <row r="501" spans="2:6" ht="30.75" thickBot="1">
+      <c r="D501" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="E498" s="163"/>
-      <c r="F498" s="163"/>
-    </row>
-    <row r="499" spans="4:6" ht="18.75" thickBot="1">
-      <c r="D499" s="122" t="str">
+      <c r="E501" s="163"/>
+      <c r="F501" s="163"/>
+    </row>
+    <row r="502" spans="2:6" ht="18.75" thickBot="1">
+      <c r="D502" s="122" t="str">
         <f>+PAYROLL!$D$1</f>
         <v>MARCH</v>
       </c>
-      <c r="E499" s="90" t="str">
+      <c r="E502" s="90" t="str">
         <f>+PAYROLL!$F$1</f>
         <v>7 - 11</v>
       </c>
-      <c r="F499" s="91">
+      <c r="F502" s="91">
         <f>+PAYROLL!$I$1</f>
         <v>2016</v>
       </c>
     </row>
-    <row r="500" spans="4:6">
-      <c r="D500" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E500" s="10" t="s">
+    <row r="503" spans="2:6">
+      <c r="D503" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E503" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F500" s="9" t="s">
+      <c r="F503" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="501" spans="4:6">
-      <c r="D501" s="87" t="str">
+    <row r="504" spans="2:6">
+      <c r="D504" s="87" t="str">
         <f>+T(PAYROLL!$D$3)</f>
         <v/>
       </c>
-      <c r="E501" s="30">
+      <c r="E504" s="30">
         <f>+PAYROLL!Q3/PAY!$C$14</f>
         <v>0</v>
       </c>
-      <c r="F501" s="6">
+      <c r="F504" s="6">
         <f>+PAYROLL!Q3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="4:6">
-      <c r="D502" s="87" t="str">
+    <row r="505" spans="2:6">
+      <c r="D505" s="87" t="str">
         <f>+T(PAYROLL!$D$4)</f>
         <v/>
       </c>
-      <c r="E502" s="30">
+      <c r="E505" s="30">
         <f>+PAYROLL!Q4/PAY!$C$14</f>
         <v>0</v>
       </c>
-      <c r="F502" s="6">
+      <c r="F505" s="6">
         <f>+PAYROLL!Q4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="4:6">
-      <c r="D503" s="87" t="str">
+    <row r="506" spans="2:6">
+      <c r="D506" s="87" t="str">
         <f>+T(PAYROLL!$D$5)</f>
         <v/>
       </c>
-      <c r="E503" s="30">
+      <c r="E506" s="30">
         <f>+PAYROLL!Q5/PAY!$C$14</f>
         <v>0</v>
       </c>
-      <c r="F503" s="6">
+      <c r="F506" s="6">
         <f>+PAYROLL!Q5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="4:6">
-      <c r="D504" s="87" t="str">
+    <row r="507" spans="2:6">
+      <c r="D507" s="87" t="str">
         <f>+T(PAYROLL!$D$6)</f>
         <v/>
       </c>
-      <c r="E504" s="30">
+      <c r="E507" s="30">
         <f>+PAYROLL!Q6/PAY!$C$14</f>
         <v>0</v>
       </c>
-      <c r="F504" s="6">
+      <c r="F507" s="6">
         <f>+PAYROLL!Q6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="4:6">
-      <c r="D505" s="87" t="str">
+    <row r="508" spans="2:6">
+      <c r="D508" s="87" t="str">
         <f>+T(PAYROLL!$D$7)</f>
         <v/>
       </c>
-      <c r="E505" s="30">
+      <c r="E508" s="30">
         <f>+PAYROLL!Q7/PAY!$C$14</f>
         <v>0</v>
       </c>
-      <c r="F505" s="6">
+      <c r="F508" s="6">
         <f>+PAYROLL!Q7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="4:6">
-      <c r="D506" s="87" t="str">
+    <row r="509" spans="2:6">
+      <c r="D509" s="87" t="str">
         <f>+T(PAYROLL!$C$8)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E506" s="30">
+      <c r="E509" s="30">
         <f>+PAYROLL!Q8/PAY!$C$14</f>
         <v>0</v>
       </c>
-      <c r="F506" s="6">
+      <c r="F509" s="6">
         <f>+PAYROLL!Q8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="4:6">
-      <c r="D507" s="7" t="s">
+    <row r="510" spans="2:6">
+      <c r="D510" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E507" s="32" t="s">
+      <c r="E510" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F507" s="7" t="s">
+      <c r="F510" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="508" spans="4:6">
-      <c r="D508" s="87" t="str">
+    <row r="511" spans="2:6">
+      <c r="D511" s="87" t="str">
         <f>+T(PAYROLL!$D$12)</f>
         <v/>
       </c>
-      <c r="E508" s="30">
+      <c r="E511" s="30">
         <f>+PAYROLL!Q12/PAY!$C$14</f>
         <v>0</v>
       </c>
-      <c r="F508" s="6">
+      <c r="F511" s="6">
         <f>+PAYROLL!Q12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="4:6">
-      <c r="D509" s="87" t="str">
+    <row r="512" spans="2:6">
+      <c r="D512" s="87" t="str">
         <f>+T(PAYROLL!$D$13)</f>
         <v/>
       </c>
-      <c r="E509" s="30">
+      <c r="E512" s="30">
         <f>+PAYROLL!Q13/PAY!$C$14</f>
         <v>0</v>
       </c>
-      <c r="F509" s="6">
+      <c r="F512" s="6">
         <f>+PAYROLL!Q13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="4:6">
-      <c r="D510" s="87" t="str">
-        <f>+T(PAYROLL!$D$14)</f>
-        <v/>
-      </c>
-      <c r="E510" s="30">
-        <f>+PAYROLL!Q14/PAY!$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="F510" s="6">
-        <f>+PAYROLL!Q14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="4:6">
-      <c r="D511" s="87" t="str">
-        <f>+T(PAYROLL!$D$15)</f>
-        <v/>
-      </c>
-      <c r="E511" s="30">
-        <f>+PAYROLL!Q15/PAY!$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="F511" s="6">
-        <f>+PAYROLL!Q15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512" spans="4:6">
-      <c r="D512" s="87" t="str">
-        <f>+T(PAYROLL!$D$16)</f>
-        <v/>
-      </c>
-      <c r="E512" s="30">
-        <f>+PAYROLL!Q16/PAY!$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="F512" s="6">
-        <f>+PAYROLL!Q16</f>
         <v>0</v>
       </c>
     </row>
     <row r="513" spans="4:6">
       <c r="D513" s="87" t="str">
+        <f>+T(PAYROLL!$D$14)</f>
+        <v/>
+      </c>
+      <c r="E513" s="30">
+        <f>+PAYROLL!Q14/PAY!$C$14</f>
+        <v>0</v>
+      </c>
+      <c r="F513" s="6">
+        <f>+PAYROLL!Q14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="4:6">
+      <c r="D514" s="87" t="str">
+        <f>+T(PAYROLL!$D$15)</f>
+        <v/>
+      </c>
+      <c r="E514" s="30">
+        <f>+PAYROLL!Q15/PAY!$C$14</f>
+        <v>0</v>
+      </c>
+      <c r="F514" s="6">
+        <f>+PAYROLL!Q15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="4:6">
+      <c r="D515" s="87" t="str">
+        <f>+T(PAYROLL!$D$16)</f>
+        <v/>
+      </c>
+      <c r="E515" s="30">
+        <f>+PAYROLL!Q16/PAY!$C$14</f>
+        <v>0</v>
+      </c>
+      <c r="F515" s="6">
+        <f>+PAYROLL!Q16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="4:6">
+      <c r="D516" s="87" t="str">
         <f>+T(PAYROLL!$C$17)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E513" s="30">
+      <c r="E516" s="30">
         <f>+PAYROLL!Q17/PAY!$C$14</f>
         <v>0</v>
       </c>
-      <c r="F513" s="6">
+      <c r="F516" s="6">
         <f>+PAYROLL!Q17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="4:6">
-      <c r="D514" s="7" t="s">
+    <row r="517" spans="4:6">
+      <c r="D517" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E514" s="32" t="s">
+      <c r="E517" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F514" s="7" t="s">
+      <c r="F517" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="515" spans="4:6">
-      <c r="D515" s="87" t="str">
-        <f>+T(PAYROLL!$D$21)</f>
-        <v/>
-      </c>
-      <c r="E515" s="30">
-        <f>+PAYROLL!Q21/PAY!$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="F515" s="6">
-        <f>+PAYROLL!Q21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="4:6">
-      <c r="D516" s="87" t="str">
-        <f>+T(PAYROLL!$D$22)</f>
-        <v/>
-      </c>
-      <c r="E516" s="30">
-        <f>+PAYROLL!Q22/PAY!$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="F516" s="6">
-        <f>+PAYROLL!Q22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="4:6">
-      <c r="D517" s="87" t="str">
-        <f>+T(PAYROLL!$D$23)</f>
-        <v/>
-      </c>
-      <c r="E517" s="30">
-        <f>+PAYROLL!Q23/PAY!$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="F517" s="6">
-        <f>+PAYROLL!Q23</f>
-        <v>0</v>
       </c>
     </row>
     <row r="518" spans="4:6">
       <c r="D518" s="87" t="str">
-        <f>+T(PAYROLL!$D$24)</f>
+        <f>+T(PAYROLL!$D$21)</f>
         <v/>
       </c>
       <c r="E518" s="30">
-        <f>+PAYROLL!Q24/PAY!$C$14</f>
+        <f>+PAYROLL!Q21/PAY!$C$14</f>
         <v>0</v>
       </c>
       <c r="F518" s="6">
-        <f>+PAYROLL!Q24</f>
+        <f>+PAYROLL!Q21</f>
         <v>0</v>
       </c>
     </row>
     <row r="519" spans="4:6">
       <c r="D519" s="87" t="str">
-        <f>+T(PAYROLL!$D$25)</f>
+        <f>+T(PAYROLL!$D$22)</f>
         <v/>
       </c>
       <c r="E519" s="30">
-        <f>+PAYROLL!Q25/PAY!$C$14</f>
+        <f>+PAYROLL!Q22/PAY!$C$14</f>
         <v>0</v>
       </c>
       <c r="F519" s="6">
-        <f>+PAYROLL!Q25</f>
+        <f>+PAYROLL!Q22</f>
         <v>0</v>
       </c>
     </row>
     <row r="520" spans="4:6">
       <c r="D520" s="87" t="str">
+        <f>+T(PAYROLL!$D$23)</f>
+        <v/>
+      </c>
+      <c r="E520" s="30">
+        <f>+PAYROLL!Q23/PAY!$C$14</f>
+        <v>0</v>
+      </c>
+      <c r="F520" s="6">
+        <f>+PAYROLL!Q23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="4:6">
+      <c r="D521" s="87" t="str">
+        <f>+T(PAYROLL!$D$24)</f>
+        <v/>
+      </c>
+      <c r="E521" s="30">
+        <f>+PAYROLL!Q24/PAY!$C$14</f>
+        <v>0</v>
+      </c>
+      <c r="F521" s="6">
+        <f>+PAYROLL!Q24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="4:6">
+      <c r="D522" s="87" t="str">
+        <f>+T(PAYROLL!$D$25)</f>
+        <v/>
+      </c>
+      <c r="E522" s="30">
+        <f>+PAYROLL!Q25/PAY!$C$14</f>
+        <v>0</v>
+      </c>
+      <c r="F522" s="6">
+        <f>+PAYROLL!Q25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="4:6">
+      <c r="D523" s="87" t="str">
         <f>+T(PAYROLL!$C$26)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E520" s="30">
+      <c r="E523" s="30">
         <f>+PAYROLL!Q26/PAY!$C$14</f>
         <v>0</v>
       </c>
-      <c r="F520" s="6">
+      <c r="F523" s="6">
         <f>+PAYROLL!Q26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="4:6">
-      <c r="D521" s="7" t="s">
+    <row r="524" spans="4:6">
+      <c r="D524" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E521" s="32" t="s">
+      <c r="E524" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F521" s="7" t="s">
+      <c r="F524" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="522" spans="4:6">
-      <c r="D522" s="87" t="str">
-        <f>+T(PAYROLL!$D$30)</f>
-        <v/>
-      </c>
-      <c r="E522" s="30">
-        <f>+PAYROLL!Q30/PAY!$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="F522" s="6">
-        <f>+PAYROLL!Q30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="4:6">
-      <c r="D523" s="87" t="str">
-        <f>+T(PAYROLL!$D$31)</f>
-        <v/>
-      </c>
-      <c r="E523" s="30">
-        <f>+PAYROLL!Q31/PAY!$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="F523" s="6">
-        <f>+PAYROLL!Q31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524" spans="4:6">
-      <c r="D524" s="87" t="str">
-        <f>+T(PAYROLL!$D$32)</f>
-        <v/>
-      </c>
-      <c r="E524" s="30">
-        <f>+PAYROLL!Q32/PAY!$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="F524" s="6">
-        <f>+PAYROLL!Q32</f>
-        <v>0</v>
       </c>
     </row>
     <row r="525" spans="4:6">
       <c r="D525" s="87" t="str">
-        <f>+T(PAYROLL!$D$33)</f>
+        <f>+T(PAYROLL!$D$30)</f>
         <v/>
       </c>
       <c r="E525" s="30">
-        <f>+PAYROLL!Q33/PAY!$C$14</f>
+        <f>+PAYROLL!Q30/PAY!$C$14</f>
         <v>0</v>
       </c>
       <c r="F525" s="6">
-        <f>+PAYROLL!Q33</f>
+        <f>+PAYROLL!Q30</f>
         <v>0</v>
       </c>
     </row>
     <row r="526" spans="4:6">
       <c r="D526" s="87" t="str">
-        <f>+T(PAYROLL!$D$34)</f>
+        <f>+T(PAYROLL!$D$31)</f>
         <v/>
       </c>
       <c r="E526" s="30">
-        <f>+PAYROLL!Q34/PAY!$C$14</f>
+        <f>+PAYROLL!Q31/PAY!$C$14</f>
         <v>0</v>
       </c>
       <c r="F526" s="6">
-        <f>+PAYROLL!Q34</f>
+        <f>+PAYROLL!Q31</f>
         <v>0</v>
       </c>
     </row>
     <row r="527" spans="4:6">
       <c r="D527" s="87" t="str">
+        <f>+T(PAYROLL!$D$32)</f>
+        <v/>
+      </c>
+      <c r="E527" s="30">
+        <f>+PAYROLL!Q32/PAY!$C$14</f>
+        <v>0</v>
+      </c>
+      <c r="F527" s="6">
+        <f>+PAYROLL!Q32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="4:6">
+      <c r="D528" s="87" t="str">
+        <f>+T(PAYROLL!$D$33)</f>
+        <v/>
+      </c>
+      <c r="E528" s="30">
+        <f>+PAYROLL!Q33/PAY!$C$14</f>
+        <v>0</v>
+      </c>
+      <c r="F528" s="6">
+        <f>+PAYROLL!Q33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="2:6">
+      <c r="D529" s="87" t="str">
+        <f>+T(PAYROLL!$D$34)</f>
+        <v/>
+      </c>
+      <c r="E529" s="30">
+        <f>+PAYROLL!Q34/PAY!$C$14</f>
+        <v>0</v>
+      </c>
+      <c r="F529" s="6">
+        <f>+PAYROLL!Q34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="2:6">
+      <c r="D530" s="87" t="str">
         <f>+T(PAYROLL!$C$35)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E527" s="30">
+      <c r="E530" s="30">
         <f>+PAYROLL!Q35/PAY!$C$14</f>
         <v>0</v>
       </c>
-      <c r="F527" s="6">
+      <c r="F530" s="6">
         <f>+PAYROLL!Q35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="4:6">
-      <c r="D528" s="7" t="s">
+    <row r="531" spans="2:6">
+      <c r="D531" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E528" s="32" t="s">
+      <c r="E531" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F528" s="7" t="s">
+      <c r="F531" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="529" spans="2:6">
-      <c r="D529" s="87" t="str">
-        <f>+T(PAYROLL!$D$39)</f>
-        <v/>
-      </c>
-      <c r="E529" s="30">
-        <f>+PAYROLL!Q39/PAY!$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="F529" s="6">
-        <f>+PAYROLL!Q39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530" spans="2:6">
-      <c r="D530" s="87" t="str">
-        <f>+T(PAYROLL!$D$40)</f>
-        <v/>
-      </c>
-      <c r="E530" s="30">
-        <f>+PAYROLL!Q40/PAY!$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="F530" s="6">
-        <f>+PAYROLL!Q40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531" spans="2:6">
-      <c r="D531" s="87" t="str">
-        <f>+T(PAYROLL!$D$41)</f>
-        <v/>
-      </c>
-      <c r="E531" s="30">
-        <f>+PAYROLL!Q41/PAY!$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="F531" s="6">
-        <f>+PAYROLL!Q41</f>
-        <v>0</v>
       </c>
     </row>
     <row r="532" spans="2:6">
       <c r="D532" s="87" t="str">
-        <f>+T(PAYROLL!$D$42)</f>
+        <f>+T(PAYROLL!$D$39)</f>
         <v/>
       </c>
       <c r="E532" s="30">
-        <f>+PAYROLL!Q42/PAY!$C$14</f>
+        <f>+PAYROLL!Q39/PAY!$C$14</f>
         <v>0</v>
       </c>
       <c r="F532" s="6">
-        <f>+PAYROLL!Q42</f>
+        <f>+PAYROLL!Q39</f>
         <v>0</v>
       </c>
     </row>
     <row r="533" spans="2:6">
       <c r="D533" s="87" t="str">
-        <f>+T(PAYROLL!$D$43)</f>
+        <f>+T(PAYROLL!$D$40)</f>
         <v/>
       </c>
       <c r="E533" s="30">
-        <f>+PAYROLL!Q43/PAY!$C$14</f>
+        <f>+PAYROLL!Q40/PAY!$C$14</f>
         <v>0</v>
       </c>
       <c r="F533" s="6">
-        <f>+PAYROLL!Q43</f>
+        <f>+PAYROLL!Q40</f>
         <v>0</v>
       </c>
     </row>
     <row r="534" spans="2:6">
       <c r="D534" s="87" t="str">
+        <f>+T(PAYROLL!$D$41)</f>
+        <v/>
+      </c>
+      <c r="E534" s="30">
+        <f>+PAYROLL!Q41/PAY!$C$14</f>
+        <v>0</v>
+      </c>
+      <c r="F534" s="6">
+        <f>+PAYROLL!Q41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="2:6">
+      <c r="D535" s="87" t="str">
+        <f>+T(PAYROLL!$D$42)</f>
+        <v/>
+      </c>
+      <c r="E535" s="30">
+        <f>+PAYROLL!Q42/PAY!$C$14</f>
+        <v>0</v>
+      </c>
+      <c r="F535" s="6">
+        <f>+PAYROLL!Q42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="2:6">
+      <c r="D536" s="87" t="str">
+        <f>+T(PAYROLL!$D$43)</f>
+        <v/>
+      </c>
+      <c r="E536" s="30">
+        <f>+PAYROLL!Q43/PAY!$C$14</f>
+        <v>0</v>
+      </c>
+      <c r="F536" s="6">
+        <f>+PAYROLL!Q43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="2:6">
+      <c r="D537" s="87" t="str">
         <f>+T(PAYROLL!$C$44)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E534" s="30">
+      <c r="E537" s="30">
         <f>+PAYROLL!Q44/PAY!$C$14</f>
         <v>0</v>
       </c>
-      <c r="F534" s="6">
+      <c r="F537" s="6">
         <f>+PAYROLL!Q44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="2:6">
-      <c r="D535" s="7" t="s">
+    <row r="538" spans="2:6">
+      <c r="D538" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E535" s="32"/>
-      <c r="F535" s="7" t="s">
+      <c r="E538" s="32"/>
+      <c r="F538" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="2:6">
-      <c r="D536" s="87" t="str">
+    <row r="539" spans="2:6">
+      <c r="D539" s="87" t="str">
         <f>+PAYROLL!D48</f>
         <v xml:space="preserve">SUN COV </v>
       </c>
-      <c r="E536" s="30"/>
-      <c r="F536" s="6">
+      <c r="E539" s="30"/>
+      <c r="F539" s="6">
         <f>+PAYROLL!Q48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="2:6">
-      <c r="D537" s="87" t="str">
+    <row r="540" spans="2:6">
+      <c r="D540" s="87" t="str">
         <f>+PAYROLL!D49</f>
         <v>SOUTH ELEC</v>
       </c>
-      <c r="E537" s="30"/>
-      <c r="F537" s="6">
+      <c r="E540" s="30"/>
+      <c r="F540" s="6">
         <f>+PAYROLL!Q49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="2:6">
-      <c r="E538" s="33"/>
-    </row>
-    <row r="539" spans="2:6">
-      <c r="D539" s="15" t="s">
+    <row r="541" spans="2:6">
+      <c r="E541" s="33"/>
+    </row>
+    <row r="542" spans="2:6">
+      <c r="D542" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E539" s="34">
-        <f>SUM(E501:E534)</f>
-        <v>0</v>
-      </c>
-      <c r="F539" s="8">
-        <f>SUM(F501:F537)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540" spans="2:6">
-      <c r="E540" s="33"/>
-    </row>
-    <row r="541" spans="2:6">
-      <c r="B541" s="39" t="s">
+      <c r="E542" s="34">
+        <f>SUM(E504:E537)</f>
+        <v>0</v>
+      </c>
+      <c r="F542" s="8">
+        <f>SUM(F504:F540)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="2:6">
+      <c r="E543" s="33"/>
+    </row>
+    <row r="544" spans="2:6">
+      <c r="B544" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C541" s="39"/>
-      <c r="E541" s="33"/>
-    </row>
-    <row r="542" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B542" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C542" s="41"/>
-      <c r="D542" s="41"/>
-      <c r="E542" s="33"/>
-    </row>
-    <row r="543" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B543" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C543" s="41"/>
-      <c r="D543" s="41"/>
-      <c r="E543" s="33"/>
-    </row>
-    <row r="544" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B544" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C544" s="41"/>
-      <c r="D544" s="41"/>
+      <c r="C544" s="39"/>
       <c r="E544" s="33"/>
     </row>
     <row r="545" spans="2:6" ht="13.5" thickBot="1">
       <c r="B545" s="40" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C545" s="41"/>
       <c r="D545" s="41"/>
+      <c r="E545" s="33"/>
     </row>
     <row r="546" spans="2:6" ht="13.5" thickBot="1">
       <c r="B546" s="40" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C546" s="41"/>
       <c r="D546" s="41"/>
-    </row>
-    <row r="547" spans="2:6">
-      <c r="B547" s="40"/>
-      <c r="C547" s="70"/>
-      <c r="D547" s="70"/>
-    </row>
-    <row r="548" spans="2:6">
-      <c r="B548" s="40"/>
-      <c r="C548" s="70"/>
-      <c r="D548" s="70"/>
-    </row>
-    <row r="549" spans="2:6">
-      <c r="B549" s="40"/>
-      <c r="C549" s="70"/>
-      <c r="D549" s="70"/>
-    </row>
-    <row r="550" spans="2:6" ht="30.75" thickBot="1">
-      <c r="D550" s="163" t="s">
+      <c r="E546" s="33"/>
+    </row>
+    <row r="547" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B547" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C547" s="41"/>
+      <c r="D547" s="41"/>
+      <c r="E547" s="33"/>
+    </row>
+    <row r="548" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B548" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C548" s="41"/>
+      <c r="D548" s="41"/>
+    </row>
+    <row r="549" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B549" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C549" s="41"/>
+      <c r="D549" s="41"/>
+    </row>
+    <row r="550" spans="2:6">
+      <c r="B550" s="40"/>
+      <c r="C550" s="70"/>
+      <c r="D550" s="70"/>
+    </row>
+    <row r="551" spans="2:6">
+      <c r="B551" s="40"/>
+      <c r="C551" s="70"/>
+      <c r="D551" s="70"/>
+    </row>
+    <row r="552" spans="2:6">
+      <c r="B552" s="40"/>
+      <c r="C552" s="70"/>
+      <c r="D552" s="70"/>
+    </row>
+    <row r="553" spans="2:6" ht="30.75" thickBot="1">
+      <c r="D553" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="E550" s="163"/>
-      <c r="F550" s="163"/>
-    </row>
-    <row r="551" spans="2:6" ht="18.75" thickBot="1">
-      <c r="D551" s="122" t="str">
+      <c r="E553" s="163"/>
+      <c r="F553" s="163"/>
+    </row>
+    <row r="554" spans="2:6" ht="18.75" thickBot="1">
+      <c r="D554" s="122" t="str">
         <f>+PAYROLL!$D$1</f>
         <v>MARCH</v>
       </c>
-      <c r="E551" s="90" t="str">
+      <c r="E554" s="90" t="str">
         <f>+PAYROLL!$F$1</f>
         <v>7 - 11</v>
       </c>
-      <c r="F551" s="91">
+      <c r="F554" s="91">
         <f>+PAYROLL!$I$1</f>
         <v>2016</v>
       </c>
     </row>
-    <row r="552" spans="2:6">
-      <c r="D552" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E552" s="10" t="s">
+    <row r="555" spans="2:6">
+      <c r="D555" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E555" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F552" s="9" t="s">
+      <c r="F555" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="553" spans="2:6">
-      <c r="D553" s="87" t="str">
-        <f>+T(PAYROLL!$D$3)</f>
-        <v/>
-      </c>
-      <c r="E553" s="30">
-        <f>+PAYROLL!R3/PAY!$C$15</f>
-        <v>0</v>
-      </c>
-      <c r="F553" s="6">
-        <f>+PAYROLL!R3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554" spans="2:6">
-      <c r="D554" s="87" t="str">
-        <f>+T(PAYROLL!$D$4)</f>
-        <v/>
-      </c>
-      <c r="E554" s="30">
-        <f>+PAYROLL!R4/PAY!$C$15</f>
-        <v>0</v>
-      </c>
-      <c r="F554" s="6">
-        <f>+PAYROLL!R4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="555" spans="2:6">
-      <c r="D555" s="87" t="str">
-        <f>+T(PAYROLL!$D$5)</f>
-        <v/>
-      </c>
-      <c r="E555" s="30">
-        <f>+PAYROLL!R5/PAY!$C$15</f>
-        <v>0</v>
-      </c>
-      <c r="F555" s="6">
-        <f>+PAYROLL!R5</f>
-        <v>0</v>
       </c>
     </row>
     <row r="556" spans="2:6">
       <c r="D556" s="87" t="str">
-        <f>+T(PAYROLL!$D$6)</f>
+        <f>+T(PAYROLL!$D$3)</f>
         <v/>
       </c>
       <c r="E556" s="30">
-        <f>+PAYROLL!R6/PAY!$C$15</f>
+        <f>+PAYROLL!R3/PAY!$C$15</f>
         <v>0</v>
       </c>
       <c r="F556" s="6">
-        <f>+PAYROLL!R6</f>
+        <f>+PAYROLL!R3</f>
         <v>0</v>
       </c>
     </row>
     <row r="557" spans="2:6">
       <c r="D557" s="87" t="str">
-        <f>+T(PAYROLL!$D$7)</f>
+        <f>+T(PAYROLL!$D$4)</f>
         <v/>
       </c>
       <c r="E557" s="30">
-        <f>+PAYROLL!R7/PAY!$C$15</f>
+        <f>+PAYROLL!R4/PAY!$C$15</f>
         <v>0</v>
       </c>
       <c r="F557" s="6">
-        <f>+PAYROLL!R7</f>
+        <f>+PAYROLL!R4</f>
         <v>0</v>
       </c>
     </row>
     <row r="558" spans="2:6">
       <c r="D558" s="87" t="str">
+        <f>+T(PAYROLL!$D$5)</f>
+        <v/>
+      </c>
+      <c r="E558" s="30">
+        <f>+PAYROLL!R5/PAY!$C$15</f>
+        <v>0</v>
+      </c>
+      <c r="F558" s="6">
+        <f>+PAYROLL!R5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="2:6">
+      <c r="D559" s="87" t="str">
+        <f>+T(PAYROLL!$D$6)</f>
+        <v/>
+      </c>
+      <c r="E559" s="30">
+        <f>+PAYROLL!R6/PAY!$C$15</f>
+        <v>0</v>
+      </c>
+      <c r="F559" s="6">
+        <f>+PAYROLL!R6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="2:6">
+      <c r="D560" s="87" t="str">
+        <f>+T(PAYROLL!$D$7)</f>
+        <v/>
+      </c>
+      <c r="E560" s="30">
+        <f>+PAYROLL!R7/PAY!$C$15</f>
+        <v>0</v>
+      </c>
+      <c r="F560" s="6">
+        <f>+PAYROLL!R7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="4:6">
+      <c r="D561" s="87" t="str">
         <f>+T(PAYROLL!$C$8)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E558" s="30">
+      <c r="E561" s="30">
         <f>+PAYROLL!R8/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F558" s="6">
+      <c r="F561" s="6">
         <f>+PAYROLL!R8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="2:6">
-      <c r="D559" s="7" t="s">
+    <row r="562" spans="4:6">
+      <c r="D562" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E559" s="32" t="s">
+      <c r="E562" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F559" s="7" t="s">
+      <c r="F562" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="560" spans="2:6">
-      <c r="D560" s="87" t="str">
-        <f>+T(PAYROLL!$D$12)</f>
-        <v/>
-      </c>
-      <c r="E560" s="30">
-        <f>+PAYROLL!R12/PAY!$C$15</f>
-        <v>0</v>
-      </c>
-      <c r="F560" s="6">
-        <f>+PAYROLL!R12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561" spans="4:6">
-      <c r="D561" s="87" t="str">
-        <f>+T(PAYROLL!$D$13)</f>
-        <v/>
-      </c>
-      <c r="E561" s="30">
-        <f>+PAYROLL!R13/PAY!$C$15</f>
-        <v>0</v>
-      </c>
-      <c r="F561" s="6">
-        <f>+PAYROLL!R13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562" spans="4:6">
-      <c r="D562" s="87" t="str">
-        <f>+T(PAYROLL!$D$14)</f>
-        <v/>
-      </c>
-      <c r="E562" s="30">
-        <f>+PAYROLL!R14/PAY!$C$15</f>
-        <v>0</v>
-      </c>
-      <c r="F562" s="6">
-        <f>+PAYROLL!R14</f>
-        <v>0</v>
       </c>
     </row>
     <row r="563" spans="4:6">
       <c r="D563" s="87" t="str">
-        <f>+T(PAYROLL!$D$15)</f>
+        <f>+T(PAYROLL!$D$12)</f>
         <v/>
       </c>
       <c r="E563" s="30">
-        <f>+PAYROLL!R15/PAY!$C$15</f>
+        <f>+PAYROLL!R12/PAY!$C$15</f>
         <v>0</v>
       </c>
       <c r="F563" s="6">
-        <f>+PAYROLL!R15</f>
+        <f>+PAYROLL!R12</f>
         <v>0</v>
       </c>
     </row>
     <row r="564" spans="4:6">
       <c r="D564" s="87" t="str">
-        <f>+T(PAYROLL!$D$16)</f>
+        <f>+T(PAYROLL!$D$13)</f>
         <v/>
       </c>
       <c r="E564" s="30">
-        <f>+PAYROLL!R16/PAY!$C$15</f>
+        <f>+PAYROLL!R13/PAY!$C$15</f>
         <v>0</v>
       </c>
       <c r="F564" s="6">
-        <f>+PAYROLL!R16</f>
+        <f>+PAYROLL!R13</f>
         <v>0</v>
       </c>
     </row>
     <row r="565" spans="4:6">
       <c r="D565" s="87" t="str">
+        <f>+T(PAYROLL!$D$14)</f>
+        <v/>
+      </c>
+      <c r="E565" s="30">
+        <f>+PAYROLL!R14/PAY!$C$15</f>
+        <v>0</v>
+      </c>
+      <c r="F565" s="6">
+        <f>+PAYROLL!R14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="4:6">
+      <c r="D566" s="87" t="str">
+        <f>+T(PAYROLL!$D$15)</f>
+        <v/>
+      </c>
+      <c r="E566" s="30">
+        <f>+PAYROLL!R15/PAY!$C$15</f>
+        <v>0</v>
+      </c>
+      <c r="F566" s="6">
+        <f>+PAYROLL!R15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="4:6">
+      <c r="D567" s="87" t="str">
+        <f>+T(PAYROLL!$D$16)</f>
+        <v/>
+      </c>
+      <c r="E567" s="30">
+        <f>+PAYROLL!R16/PAY!$C$15</f>
+        <v>0</v>
+      </c>
+      <c r="F567" s="6">
+        <f>+PAYROLL!R16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="4:6">
+      <c r="D568" s="87" t="str">
         <f>+T(PAYROLL!$C$17)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E565" s="30">
+      <c r="E568" s="30">
         <f>+PAYROLL!R17/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F565" s="6">
+      <c r="F568" s="6">
         <f>+PAYROLL!R17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="4:6">
-      <c r="D566" s="7" t="s">
+    <row r="569" spans="4:6">
+      <c r="D569" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E566" s="32" t="s">
+      <c r="E569" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F566" s="7" t="s">
+      <c r="F569" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="567" spans="4:6">
-      <c r="D567" s="87" t="str">
-        <f>+T(PAYROLL!$D$21)</f>
-        <v/>
-      </c>
-      <c r="E567" s="30">
-        <f>+PAYROLL!R21/PAY!$C$15</f>
-        <v>0</v>
-      </c>
-      <c r="F567" s="6">
-        <f>+PAYROLL!R21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568" spans="4:6">
-      <c r="D568" s="87" t="str">
-        <f>+T(PAYROLL!$D$22)</f>
-        <v/>
-      </c>
-      <c r="E568" s="30">
-        <f>+PAYROLL!R22/PAY!$C$15</f>
-        <v>0</v>
-      </c>
-      <c r="F568" s="6">
-        <f>+PAYROLL!R22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569" spans="4:6">
-      <c r="D569" s="87" t="str">
-        <f>+T(PAYROLL!$D$23)</f>
-        <v/>
-      </c>
-      <c r="E569" s="30">
-        <f>+PAYROLL!R23/PAY!$C$15</f>
-        <v>0</v>
-      </c>
-      <c r="F569" s="6">
-        <f>+PAYROLL!R23</f>
-        <v>0</v>
       </c>
     </row>
     <row r="570" spans="4:6">
       <c r="D570" s="87" t="str">
-        <f>+T(PAYROLL!$D$24)</f>
+        <f>+T(PAYROLL!$D$21)</f>
         <v/>
       </c>
       <c r="E570" s="30">
-        <f>+PAYROLL!R24/PAY!$C$15</f>
+        <f>+PAYROLL!R21/PAY!$C$15</f>
         <v>0</v>
       </c>
       <c r="F570" s="6">
-        <f>+PAYROLL!R24</f>
+        <f>+PAYROLL!R21</f>
         <v>0</v>
       </c>
     </row>
     <row r="571" spans="4:6">
       <c r="D571" s="87" t="str">
-        <f>+T(PAYROLL!$D$25)</f>
+        <f>+T(PAYROLL!$D$22)</f>
         <v/>
       </c>
       <c r="E571" s="30">
-        <f>+PAYROLL!R25/PAY!$C$15</f>
+        <f>+PAYROLL!R22/PAY!$C$15</f>
         <v>0</v>
       </c>
       <c r="F571" s="6">
-        <f>+PAYROLL!R25</f>
+        <f>+PAYROLL!R22</f>
         <v>0</v>
       </c>
     </row>
     <row r="572" spans="4:6">
       <c r="D572" s="87" t="str">
+        <f>+T(PAYROLL!$D$23)</f>
+        <v/>
+      </c>
+      <c r="E572" s="30">
+        <f>+PAYROLL!R23/PAY!$C$15</f>
+        <v>0</v>
+      </c>
+      <c r="F572" s="6">
+        <f>+PAYROLL!R23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="4:6">
+      <c r="D573" s="87" t="str">
+        <f>+T(PAYROLL!$D$24)</f>
+        <v/>
+      </c>
+      <c r="E573" s="30">
+        <f>+PAYROLL!R24/PAY!$C$15</f>
+        <v>0</v>
+      </c>
+      <c r="F573" s="6">
+        <f>+PAYROLL!R24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="4:6">
+      <c r="D574" s="87" t="str">
+        <f>+T(PAYROLL!$D$25)</f>
+        <v/>
+      </c>
+      <c r="E574" s="30">
+        <f>+PAYROLL!R25/PAY!$C$15</f>
+        <v>0</v>
+      </c>
+      <c r="F574" s="6">
+        <f>+PAYROLL!R25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="4:6">
+      <c r="D575" s="87" t="str">
         <f>+T(PAYROLL!$C$26)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E572" s="30">
+      <c r="E575" s="30">
         <f>+PAYROLL!R26/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F572" s="6">
+      <c r="F575" s="6">
         <f>+PAYROLL!R26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="4:6">
-      <c r="D573" s="7" t="s">
+    <row r="576" spans="4:6">
+      <c r="D576" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E573" s="32" t="s">
+      <c r="E576" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F573" s="7" t="s">
+      <c r="F576" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="574" spans="4:6">
-      <c r="D574" s="87" t="str">
+    <row r="577" spans="4:6">
+      <c r="D577" s="87" t="str">
         <f>+T(PAYROLL!$D$30)</f>
         <v/>
       </c>
-      <c r="E574" s="30">
+      <c r="E577" s="30">
         <f>+PAYROLL!R30/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F574" s="6">
+      <c r="F577" s="6">
         <f>+PAYROLL!R30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="4:6">
-      <c r="D575" s="87" t="str">
+    <row r="578" spans="4:6">
+      <c r="D578" s="87" t="str">
         <f>+T(PAYROLL!$D$31)</f>
         <v/>
       </c>
-      <c r="E575" s="30">
+      <c r="E578" s="30">
         <f>+PAYROLL!R31/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F575" s="6">
+      <c r="F578" s="6">
         <f>+PAYROLL!R31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="4:6">
-      <c r="D576" s="87" t="str">
+    <row r="579" spans="4:6">
+      <c r="D579" s="87" t="str">
         <f>+T(PAYROLL!$D$32)</f>
         <v/>
       </c>
-      <c r="E576" s="30">
+      <c r="E579" s="30">
         <f>+PAYROLL!R32/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F576" s="6">
+      <c r="F579" s="6">
         <f>+PAYROLL!R32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="2:6">
-      <c r="D577" s="87" t="str">
+    <row r="580" spans="4:6">
+      <c r="D580" s="87" t="str">
         <f>+T(PAYROLL!$D$33)</f>
         <v/>
       </c>
-      <c r="E577" s="30">
+      <c r="E580" s="30">
         <f>+PAYROLL!R33/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F577" s="6">
+      <c r="F580" s="6">
         <f>+PAYROLL!R33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="2:6">
-      <c r="D578" s="87" t="str">
+    <row r="581" spans="4:6">
+      <c r="D581" s="87" t="str">
         <f>+T(PAYROLL!$D$34)</f>
         <v/>
       </c>
-      <c r="E578" s="30">
+      <c r="E581" s="30">
         <f>+PAYROLL!R34/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F578" s="6">
+      <c r="F581" s="6">
         <f>+PAYROLL!R34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="2:6">
-      <c r="D579" s="87" t="str">
+    <row r="582" spans="4:6">
+      <c r="D582" s="87" t="str">
         <f>+T(PAYROLL!$C$35)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E579" s="30">
+      <c r="E582" s="30">
         <f>+PAYROLL!R35/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F579" s="6">
+      <c r="F582" s="6">
         <f>+PAYROLL!R35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="2:6">
-      <c r="D580" s="7" t="s">
+    <row r="583" spans="4:6">
+      <c r="D583" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E580" s="32" t="s">
+      <c r="E583" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F580" s="7" t="s">
+      <c r="F583" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="581" spans="2:6">
-      <c r="D581" s="87" t="str">
+    <row r="584" spans="4:6">
+      <c r="D584" s="87" t="str">
         <f>+T(PAYROLL!$D$39)</f>
         <v/>
       </c>
-      <c r="E581" s="30">
+      <c r="E584" s="30">
         <f>+PAYROLL!R39/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F581" s="6">
+      <c r="F584" s="6">
         <f>+PAYROLL!R39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="2:6">
-      <c r="D582" s="87" t="str">
+    <row r="585" spans="4:6">
+      <c r="D585" s="87" t="str">
         <f>+T(PAYROLL!$D$40)</f>
         <v/>
       </c>
-      <c r="E582" s="30">
+      <c r="E585" s="30">
         <f>+PAYROLL!R40/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F582" s="6">
+      <c r="F585" s="6">
         <f>+PAYROLL!R40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="2:6">
-      <c r="D583" s="87" t="str">
+    <row r="586" spans="4:6">
+      <c r="D586" s="87" t="str">
         <f>+T(PAYROLL!$D$41)</f>
         <v/>
       </c>
-      <c r="E583" s="30">
+      <c r="E586" s="30">
         <f>+PAYROLL!R41/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F583" s="6">
+      <c r="F586" s="6">
         <f>+PAYROLL!R41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="2:6">
-      <c r="D584" s="87" t="str">
+    <row r="587" spans="4:6">
+      <c r="D587" s="87" t="str">
         <f>+T(PAYROLL!$D$42)</f>
         <v/>
       </c>
-      <c r="E584" s="30">
+      <c r="E587" s="30">
         <f>+PAYROLL!R42/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F584" s="6">
+      <c r="F587" s="6">
         <f>+PAYROLL!R42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="2:6">
-      <c r="D585" s="87" t="str">
+    <row r="588" spans="4:6">
+      <c r="D588" s="87" t="str">
         <f>+T(PAYROLL!$D$43)</f>
         <v/>
       </c>
-      <c r="E585" s="30">
+      <c r="E588" s="30">
         <f>+PAYROLL!R43/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F585" s="6">
+      <c r="F588" s="6">
         <f>+PAYROLL!R43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="2:6">
-      <c r="D586" s="87" t="str">
+    <row r="589" spans="4:6">
+      <c r="D589" s="87" t="str">
         <f>+T(PAYROLL!$C$44)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E586" s="30">
+      <c r="E589" s="30">
         <f>+PAYROLL!R44/PAY!$C$15</f>
         <v>0</v>
       </c>
-      <c r="F586" s="6">
+      <c r="F589" s="6">
         <f>+PAYROLL!R44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="2:6">
-      <c r="E587" s="33"/>
-    </row>
-    <row r="588" spans="2:6">
-      <c r="D588" s="15" t="s">
+    <row r="590" spans="4:6">
+      <c r="E590" s="33"/>
+    </row>
+    <row r="591" spans="4:6">
+      <c r="D591" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E588" s="34">
-        <f>SUM(E553:E586)</f>
-        <v>0</v>
-      </c>
-      <c r="F588" s="8">
-        <f>SUM(F553:F586)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589" spans="2:6">
-      <c r="E589" s="33"/>
-    </row>
-    <row r="590" spans="2:6">
-      <c r="B590" s="39" t="s">
+      <c r="E591" s="34">
+        <f>SUM(E556:E589)</f>
+        <v>0</v>
+      </c>
+      <c r="F591" s="8">
+        <f>SUM(F556:F589)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="4:6">
+      <c r="E592" s="33"/>
+    </row>
+    <row r="593" spans="2:6">
+      <c r="B593" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C590" s="39"/>
-      <c r="E590" s="33"/>
-    </row>
-    <row r="591" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B591" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C591" s="41"/>
-      <c r="D591" s="41"/>
-      <c r="E591" s="33"/>
-    </row>
-    <row r="592" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B592" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C592" s="41"/>
-      <c r="D592" s="41"/>
-      <c r="E592" s="33"/>
-    </row>
-    <row r="593" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B593" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C593" s="41"/>
-      <c r="D593" s="41"/>
+      <c r="C593" s="39"/>
       <c r="E593" s="33"/>
     </row>
     <row r="594" spans="2:6" ht="13.5" thickBot="1">
       <c r="B594" s="40" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C594" s="41"/>
       <c r="D594" s="41"/>
+      <c r="E594" s="33"/>
     </row>
     <row r="595" spans="2:6" ht="13.5" thickBot="1">
       <c r="B595" s="40" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C595" s="41"/>
       <c r="D595" s="41"/>
-    </row>
-    <row r="596" spans="2:6">
-      <c r="B596" s="40"/>
-      <c r="C596" s="70"/>
-      <c r="D596" s="70"/>
-    </row>
-    <row r="600" spans="2:6" ht="30.75" thickBot="1">
-      <c r="D600" s="163" t="s">
+      <c r="E595" s="33"/>
+    </row>
+    <row r="596" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B596" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C596" s="41"/>
+      <c r="D596" s="41"/>
+      <c r="E596" s="33"/>
+    </row>
+    <row r="597" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B597" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C597" s="41"/>
+      <c r="D597" s="41"/>
+    </row>
+    <row r="598" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B598" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C598" s="41"/>
+      <c r="D598" s="41"/>
+    </row>
+    <row r="599" spans="2:6">
+      <c r="B599" s="40"/>
+      <c r="C599" s="70"/>
+      <c r="D599" s="70"/>
+    </row>
+    <row r="603" spans="2:6" ht="30.75" thickBot="1">
+      <c r="D603" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="E600" s="163"/>
-      <c r="F600" s="163"/>
-    </row>
-    <row r="601" spans="2:6" ht="18.75" thickBot="1">
-      <c r="D601" s="122" t="str">
+      <c r="E603" s="163"/>
+      <c r="F603" s="163"/>
+    </row>
+    <row r="604" spans="2:6" ht="18.75" thickBot="1">
+      <c r="D604" s="122" t="str">
         <f>+PAYROLL!$D$1</f>
         <v>MARCH</v>
       </c>
-      <c r="E601" s="90" t="str">
+      <c r="E604" s="90" t="str">
         <f>+PAYROLL!$F$1</f>
         <v>7 - 11</v>
       </c>
-      <c r="F601" s="91">
+      <c r="F604" s="91">
         <f>+PAYROLL!$I$1</f>
         <v>2016</v>
       </c>
     </row>
-    <row r="602" spans="2:6">
-      <c r="D602" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E602" s="10" t="s">
+    <row r="605" spans="2:6">
+      <c r="D605" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E605" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F602" s="9" t="s">
+      <c r="F605" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="603" spans="2:6">
-      <c r="D603" s="87" t="str">
-        <f>+T(PAYROLL!$D$3)</f>
-        <v/>
-      </c>
-      <c r="E603" s="30">
-        <f>+PAYROLL!S3/PAY!$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="F603" s="6">
-        <f>+PAYROLL!S3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604" spans="2:6">
-      <c r="D604" s="87" t="str">
-        <f>+T(PAYROLL!$D$4)</f>
-        <v/>
-      </c>
-      <c r="E604" s="30">
-        <f>+PAYROLL!S4/PAY!$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="F604" s="6">
-        <f>+PAYROLL!S4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="2:6">
-      <c r="D605" s="87" t="str">
-        <f>+T(PAYROLL!$D$5)</f>
-        <v/>
-      </c>
-      <c r="E605" s="30">
-        <f>+PAYROLL!S5/PAY!$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="F605" s="6">
-        <f>+PAYROLL!S5</f>
-        <v>0</v>
       </c>
     </row>
     <row r="606" spans="2:6">
       <c r="D606" s="87" t="str">
-        <f>+T(PAYROLL!$D$6)</f>
+        <f>+T(PAYROLL!$D$3)</f>
         <v/>
       </c>
       <c r="E606" s="30">
-        <f>+PAYROLL!S6/PAY!$C$16</f>
+        <f>+PAYROLL!S3/PAY!$C$16</f>
         <v>0</v>
       </c>
       <c r="F606" s="6">
-        <f>+PAYROLL!S6</f>
+        <f>+PAYROLL!S3</f>
         <v>0</v>
       </c>
     </row>
     <row r="607" spans="2:6">
       <c r="D607" s="87" t="str">
-        <f>+T(PAYROLL!$D$7)</f>
+        <f>+T(PAYROLL!$D$4)</f>
         <v/>
       </c>
       <c r="E607" s="30">
-        <f>+PAYROLL!S7/PAY!$C$16</f>
+        <f>+PAYROLL!S4/PAY!$C$16</f>
         <v>0</v>
       </c>
       <c r="F607" s="6">
-        <f>+PAYROLL!S7</f>
+        <f>+PAYROLL!S4</f>
         <v>0</v>
       </c>
     </row>
     <row r="608" spans="2:6">
       <c r="D608" s="87" t="str">
+        <f>+T(PAYROLL!$D$5)</f>
+        <v/>
+      </c>
+      <c r="E608" s="30">
+        <f>+PAYROLL!S5/PAY!$C$16</f>
+        <v>0</v>
+      </c>
+      <c r="F608" s="6">
+        <f>+PAYROLL!S5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="4:6">
+      <c r="D609" s="87" t="str">
+        <f>+T(PAYROLL!$D$6)</f>
+        <v/>
+      </c>
+      <c r="E609" s="30">
+        <f>+PAYROLL!S6/PAY!$C$16</f>
+        <v>0</v>
+      </c>
+      <c r="F609" s="6">
+        <f>+PAYROLL!S6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="4:6">
+      <c r="D610" s="87" t="str">
+        <f>+T(PAYROLL!$D$7)</f>
+        <v/>
+      </c>
+      <c r="E610" s="30">
+        <f>+PAYROLL!S7/PAY!$C$16</f>
+        <v>0</v>
+      </c>
+      <c r="F610" s="6">
+        <f>+PAYROLL!S7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="4:6">
+      <c r="D611" s="87" t="str">
         <f>+T(PAYROLL!$C$8)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E608" s="30">
+      <c r="E611" s="30">
         <f>+PAYROLL!S8/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F608" s="6">
+      <c r="F611" s="6">
         <f>+PAYROLL!S8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="4:6">
-      <c r="D609" s="7" t="s">
+    <row r="612" spans="4:6">
+      <c r="D612" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E609" s="32" t="s">
+      <c r="E612" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F609" s="7" t="s">
+      <c r="F612" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="610" spans="4:6">
-      <c r="D610" s="87" t="str">
-        <f>+T(PAYROLL!$D$12)</f>
-        <v/>
-      </c>
-      <c r="E610" s="30">
-        <f>+PAYROLL!S12/PAY!$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="F610" s="6">
-        <f>+PAYROLL!S12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611" spans="4:6">
-      <c r="D611" s="87" t="str">
-        <f>+T(PAYROLL!$D$13)</f>
-        <v/>
-      </c>
-      <c r="E611" s="30">
-        <f>+PAYROLL!S13/PAY!$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="F611" s="6">
-        <f>+PAYROLL!S13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="4:6">
-      <c r="D612" s="87" t="str">
-        <f>+T(PAYROLL!$D$14)</f>
-        <v/>
-      </c>
-      <c r="E612" s="30">
-        <f>+PAYROLL!S14/PAY!$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="F612" s="6">
-        <f>+PAYROLL!S14</f>
-        <v>0</v>
       </c>
     </row>
     <row r="613" spans="4:6">
       <c r="D613" s="87" t="str">
-        <f>+T(PAYROLL!$D$15)</f>
+        <f>+T(PAYROLL!$D$12)</f>
         <v/>
       </c>
       <c r="E613" s="30">
-        <f>+PAYROLL!S15/PAY!$C$16</f>
+        <f>+PAYROLL!S12/PAY!$C$16</f>
         <v>0</v>
       </c>
       <c r="F613" s="6">
-        <f>+PAYROLL!S15</f>
+        <f>+PAYROLL!S12</f>
         <v>0</v>
       </c>
     </row>
     <row r="614" spans="4:6">
       <c r="D614" s="87" t="str">
-        <f>+T(PAYROLL!$D$16)</f>
+        <f>+T(PAYROLL!$D$13)</f>
         <v/>
       </c>
       <c r="E614" s="30">
-        <f>+PAYROLL!S16/PAY!$C$16</f>
+        <f>+PAYROLL!S13/PAY!$C$16</f>
         <v>0</v>
       </c>
       <c r="F614" s="6">
-        <f>+PAYROLL!S16</f>
+        <f>+PAYROLL!S13</f>
         <v>0</v>
       </c>
     </row>
     <row r="615" spans="4:6">
       <c r="D615" s="87" t="str">
+        <f>+T(PAYROLL!$D$14)</f>
+        <v/>
+      </c>
+      <c r="E615" s="30">
+        <f>+PAYROLL!S14/PAY!$C$16</f>
+        <v>0</v>
+      </c>
+      <c r="F615" s="6">
+        <f>+PAYROLL!S14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="4:6">
+      <c r="D616" s="87" t="str">
+        <f>+T(PAYROLL!$D$15)</f>
+        <v/>
+      </c>
+      <c r="E616" s="30">
+        <f>+PAYROLL!S15/PAY!$C$16</f>
+        <v>0</v>
+      </c>
+      <c r="F616" s="6">
+        <f>+PAYROLL!S15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="4:6">
+      <c r="D617" s="87" t="str">
+        <f>+T(PAYROLL!$D$16)</f>
+        <v/>
+      </c>
+      <c r="E617" s="30">
+        <f>+PAYROLL!S16/PAY!$C$16</f>
+        <v>0</v>
+      </c>
+      <c r="F617" s="6">
+        <f>+PAYROLL!S16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="4:6">
+      <c r="D618" s="87" t="str">
         <f>+T(PAYROLL!$C$17)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E615" s="30">
+      <c r="E618" s="30">
         <f>+PAYROLL!S17/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F615" s="6">
+      <c r="F618" s="6">
         <f>+PAYROLL!S17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="4:6">
-      <c r="D616" s="7" t="s">
+    <row r="619" spans="4:6">
+      <c r="D619" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E616" s="32" t="s">
+      <c r="E619" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F616" s="7" t="s">
+      <c r="F619" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="617" spans="4:6">
-      <c r="D617" s="87" t="str">
-        <f>+T(PAYROLL!$D$21)</f>
-        <v/>
-      </c>
-      <c r="E617" s="30">
-        <f>+PAYROLL!S21/PAY!$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="F617" s="6">
-        <f>+PAYROLL!S21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" spans="4:6">
-      <c r="D618" s="87" t="str">
-        <f>+T(PAYROLL!$D$22)</f>
-        <v/>
-      </c>
-      <c r="E618" s="30">
-        <f>+PAYROLL!S22/PAY!$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="F618" s="6">
-        <f>+PAYROLL!S22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" spans="4:6">
-      <c r="D619" s="87" t="str">
-        <f>+T(PAYROLL!$D$23)</f>
-        <v/>
-      </c>
-      <c r="E619" s="30">
-        <f>+PAYROLL!S23/PAY!$C$16</f>
-        <v>0</v>
-      </c>
-      <c r="F619" s="6">
-        <f>+PAYROLL!S23</f>
-        <v>0</v>
       </c>
     </row>
     <row r="620" spans="4:6">
       <c r="D620" s="87" t="str">
-        <f>+T(PAYROLL!$D$24)</f>
+        <f>+T(PAYROLL!$D$21)</f>
         <v/>
       </c>
       <c r="E620" s="30">
-        <f>+PAYROLL!S24/PAY!$C$16</f>
+        <f>+PAYROLL!S21/PAY!$C$16</f>
         <v>0</v>
       </c>
       <c r="F620" s="6">
-        <f>+PAYROLL!S24</f>
+        <f>+PAYROLL!S21</f>
         <v>0</v>
       </c>
     </row>
     <row r="621" spans="4:6">
       <c r="D621" s="87" t="str">
-        <f>+T(PAYROLL!$D$25)</f>
+        <f>+T(PAYROLL!$D$22)</f>
         <v/>
       </c>
       <c r="E621" s="30">
-        <f>+PAYROLL!S25/PAY!$C$16</f>
+        <f>+PAYROLL!S22/PAY!$C$16</f>
         <v>0</v>
       </c>
       <c r="F621" s="6">
-        <f>+PAYROLL!S25</f>
+        <f>+PAYROLL!S22</f>
         <v>0</v>
       </c>
     </row>
     <row r="622" spans="4:6">
       <c r="D622" s="87" t="str">
+        <f>+T(PAYROLL!$D$23)</f>
+        <v/>
+      </c>
+      <c r="E622" s="30">
+        <f>+PAYROLL!S23/PAY!$C$16</f>
+        <v>0</v>
+      </c>
+      <c r="F622" s="6">
+        <f>+PAYROLL!S23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="4:6">
+      <c r="D623" s="87" t="str">
+        <f>+T(PAYROLL!$D$24)</f>
+        <v/>
+      </c>
+      <c r="E623" s="30">
+        <f>+PAYROLL!S24/PAY!$C$16</f>
+        <v>0</v>
+      </c>
+      <c r="F623" s="6">
+        <f>+PAYROLL!S24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="4:6">
+      <c r="D624" s="87" t="str">
+        <f>+T(PAYROLL!$D$25)</f>
+        <v/>
+      </c>
+      <c r="E624" s="30">
+        <f>+PAYROLL!S25/PAY!$C$16</f>
+        <v>0</v>
+      </c>
+      <c r="F624" s="6">
+        <f>+PAYROLL!S25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="4:6">
+      <c r="D625" s="87" t="str">
         <f>+T(PAYROLL!$C$26)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E622" s="30">
+      <c r="E625" s="30">
         <f>+PAYROLL!S26/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F622" s="6">
+      <c r="F625" s="6">
         <f>+PAYROLL!S26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="4:6">
-      <c r="D623" s="7" t="s">
+    <row r="626" spans="4:6">
+      <c r="D626" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E623" s="32" t="s">
+      <c r="E626" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F623" s="7" t="s">
+      <c r="F626" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="624" spans="4:6">
-      <c r="D624" s="87" t="str">
+    <row r="627" spans="4:6">
+      <c r="D627" s="87" t="str">
         <f>+T(PAYROLL!$D$30)</f>
         <v/>
       </c>
-      <c r="E624" s="30">
+      <c r="E627" s="30">
         <f>+PAYROLL!S30/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F624" s="6">
+      <c r="F627" s="6">
         <f>+PAYROLL!S30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="2:6">
-      <c r="D625" s="87" t="str">
+    <row r="628" spans="4:6">
+      <c r="D628" s="87" t="str">
         <f>+T(PAYROLL!$D$31)</f>
         <v/>
       </c>
-      <c r="E625" s="30">
+      <c r="E628" s="30">
         <f>+PAYROLL!S31/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F625" s="6">
+      <c r="F628" s="6">
         <f>+PAYROLL!S31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="2:6">
-      <c r="D626" s="87" t="str">
+    <row r="629" spans="4:6">
+      <c r="D629" s="87" t="str">
         <f>+T(PAYROLL!$D$32)</f>
         <v/>
       </c>
-      <c r="E626" s="30">
+      <c r="E629" s="30">
         <f>+PAYROLL!S32/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F626" s="6">
+      <c r="F629" s="6">
         <f>+PAYROLL!S32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="2:6">
-      <c r="D627" s="87" t="str">
+    <row r="630" spans="4:6">
+      <c r="D630" s="87" t="str">
         <f>+T(PAYROLL!$D$33)</f>
         <v/>
       </c>
-      <c r="E627" s="30">
+      <c r="E630" s="30">
         <f>+PAYROLL!S33/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F627" s="6">
+      <c r="F630" s="6">
         <f>+PAYROLL!S33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="2:6">
-      <c r="D628" s="87" t="str">
+    <row r="631" spans="4:6">
+      <c r="D631" s="87" t="str">
         <f>+T(PAYROLL!$D$34)</f>
         <v/>
       </c>
-      <c r="E628" s="30">
+      <c r="E631" s="30">
         <f>+PAYROLL!S34/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F628" s="6">
+      <c r="F631" s="6">
         <f>+PAYROLL!S34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="2:6">
-      <c r="D629" s="87" t="str">
+    <row r="632" spans="4:6">
+      <c r="D632" s="87" t="str">
         <f>+T(PAYROLL!$C$35)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E629" s="30">
+      <c r="E632" s="30">
         <f>+PAYROLL!S35/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F629" s="6">
+      <c r="F632" s="6">
         <f>+PAYROLL!S35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="2:6">
-      <c r="D630" s="7" t="s">
+    <row r="633" spans="4:6">
+      <c r="D633" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E630" s="32" t="s">
+      <c r="E633" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F630" s="7" t="s">
+      <c r="F633" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="631" spans="2:6">
-      <c r="D631" s="87" t="str">
+    <row r="634" spans="4:6">
+      <c r="D634" s="87" t="str">
         <f>+T(PAYROLL!$D$39)</f>
         <v/>
       </c>
-      <c r="E631" s="30">
+      <c r="E634" s="30">
         <f>+PAYROLL!S39/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F631" s="6">
+      <c r="F634" s="6">
         <f>+PAYROLL!S39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="2:6">
-      <c r="D632" s="87" t="str">
+    <row r="635" spans="4:6">
+      <c r="D635" s="87" t="str">
         <f>+T(PAYROLL!$D$40)</f>
         <v/>
       </c>
-      <c r="E632" s="30">
+      <c r="E635" s="30">
         <f>+PAYROLL!S40/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F632" s="6">
+      <c r="F635" s="6">
         <f>+PAYROLL!S40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="2:6">
-      <c r="D633" s="87" t="str">
+    <row r="636" spans="4:6">
+      <c r="D636" s="87" t="str">
         <f>+T(PAYROLL!$D$41)</f>
         <v/>
       </c>
-      <c r="E633" s="30">
+      <c r="E636" s="30">
         <f>+PAYROLL!S41/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F633" s="6">
+      <c r="F636" s="6">
         <f>+PAYROLL!S41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="2:6">
-      <c r="D634" s="87" t="str">
+    <row r="637" spans="4:6">
+      <c r="D637" s="87" t="str">
         <f>+T(PAYROLL!$D$42)</f>
         <v/>
       </c>
-      <c r="E634" s="30">
+      <c r="E637" s="30">
         <f>+PAYROLL!S42/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F634" s="6">
+      <c r="F637" s="6">
         <f>+PAYROLL!S42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="2:6">
-      <c r="D635" s="87" t="str">
+    <row r="638" spans="4:6">
+      <c r="D638" s="87" t="str">
         <f>+T(PAYROLL!$D$43)</f>
         <v/>
       </c>
-      <c r="E635" s="30">
+      <c r="E638" s="30">
         <f>+PAYROLL!S43/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F635" s="6">
+      <c r="F638" s="6">
         <f>+PAYROLL!S43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="2:6">
-      <c r="D636" s="87" t="str">
+    <row r="639" spans="4:6">
+      <c r="D639" s="87" t="str">
         <f>+T(PAYROLL!$C$44)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E636" s="30">
+      <c r="E639" s="30">
         <f>+PAYROLL!S44/PAY!$C$16</f>
         <v>0</v>
       </c>
-      <c r="F636" s="6">
+      <c r="F639" s="6">
         <f>+PAYROLL!S44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="2:6">
-      <c r="E637" s="33"/>
-    </row>
-    <row r="638" spans="2:6">
-      <c r="D638" s="15" t="s">
+    <row r="640" spans="4:6">
+      <c r="E640" s="33"/>
+    </row>
+    <row r="641" spans="2:6">
+      <c r="D641" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E638" s="34">
-        <f>SUM(E603:E636)</f>
-        <v>0</v>
-      </c>
-      <c r="F638" s="8">
-        <f>SUM(F603:F636)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639" spans="2:6">
-      <c r="E639" s="33"/>
-    </row>
-    <row r="640" spans="2:6">
-      <c r="B640" s="39" t="s">
+      <c r="E641" s="34">
+        <f>SUM(E606:E639)</f>
+        <v>0</v>
+      </c>
+      <c r="F641" s="8">
+        <f>SUM(F606:F639)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="2:6">
+      <c r="E642" s="33"/>
+    </row>
+    <row r="643" spans="2:6">
+      <c r="B643" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C640" s="39"/>
-      <c r="E640" s="33"/>
-    </row>
-    <row r="641" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B641" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C641" s="41"/>
-      <c r="D641" s="41"/>
-      <c r="E641" s="33"/>
-    </row>
-    <row r="642" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B642" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C642" s="41"/>
-      <c r="D642" s="41"/>
-      <c r="E642" s="33"/>
-    </row>
-    <row r="643" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B643" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C643" s="41"/>
-      <c r="D643" s="41"/>
+      <c r="C643" s="39"/>
       <c r="E643" s="33"/>
     </row>
     <row r="644" spans="2:6" ht="13.5" thickBot="1">
       <c r="B644" s="40" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C644" s="41"/>
       <c r="D644" s="41"/>
+      <c r="E644" s="33"/>
     </row>
     <row r="645" spans="2:6" ht="13.5" thickBot="1">
       <c r="B645" s="40" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C645" s="41"/>
       <c r="D645" s="41"/>
-    </row>
-    <row r="646" spans="2:6" ht="409.6">
-      <c r="B646" s="40"/>
-      <c r="C646" s="70"/>
-      <c r="D646" s="70"/>
-    </row>
-    <row r="651" spans="2:6" ht="30.75" thickBot="1">
-      <c r="D651" s="163" t="s">
+      <c r="E645" s="33"/>
+    </row>
+    <row r="646" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B646" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C646" s="41"/>
+      <c r="D646" s="41"/>
+      <c r="E646" s="33"/>
+    </row>
+    <row r="647" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B647" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C647" s="41"/>
+      <c r="D647" s="41"/>
+    </row>
+    <row r="648" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B648" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C648" s="41"/>
+      <c r="D648" s="41"/>
+    </row>
+    <row r="649" spans="2:6">
+      <c r="B649" s="40"/>
+      <c r="C649" s="70"/>
+      <c r="D649" s="70"/>
+    </row>
+    <row r="654" spans="2:6" ht="30.75" thickBot="1">
+      <c r="D654" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="E651" s="163"/>
-      <c r="F651" s="163"/>
-    </row>
-    <row r="652" spans="2:6" ht="18.75" thickBot="1">
-      <c r="D652" s="122" t="str">
+      <c r="E654" s="163"/>
+      <c r="F654" s="163"/>
+    </row>
+    <row r="655" spans="2:6" ht="18.75" thickBot="1">
+      <c r="D655" s="122" t="str">
         <f>+PAYROLL!$D$1</f>
         <v>MARCH</v>
       </c>
-      <c r="E652" s="90" t="str">
+      <c r="E655" s="90" t="str">
         <f>+PAYROLL!$F$1</f>
         <v>7 - 11</v>
       </c>
-      <c r="F652" s="91">
+      <c r="F655" s="91">
         <f>+PAYROLL!$I$1</f>
         <v>2016</v>
       </c>
     </row>
-    <row r="653" spans="2:6" ht="409.6">
-      <c r="D653" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E653" s="10" t="s">
+    <row r="656" spans="2:6">
+      <c r="D656" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E656" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F653" s="9" t="s">
+      <c r="F656" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="654" spans="2:6" ht="409.6">
-      <c r="D654" s="87" t="str">
+    <row r="657" spans="4:6">
+      <c r="D657" s="87" t="str">
         <f>+T(PAYROLL!$D$3)</f>
         <v/>
       </c>
-      <c r="E654" s="30">
+      <c r="E657" s="30">
         <f>+PAYROLL!T3/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F654" s="6">
+      <c r="F657" s="6">
         <f>+PAYROLL!T3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="2:6" ht="409.6">
-      <c r="D655" s="87" t="str">
+    <row r="658" spans="4:6">
+      <c r="D658" s="87" t="str">
         <f>+T(PAYROLL!$D$4)</f>
         <v/>
       </c>
-      <c r="E655" s="30">
+      <c r="E658" s="30">
         <f>+PAYROLL!T4/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F655" s="6">
+      <c r="F658" s="6">
         <f>+PAYROLL!T4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="2:6" ht="409.6">
-      <c r="D656" s="87" t="str">
+    <row r="659" spans="4:6">
+      <c r="D659" s="87" t="str">
         <f>+T(PAYROLL!$D$5)</f>
         <v/>
       </c>
-      <c r="E656" s="30">
+      <c r="E659" s="30">
         <f>+PAYROLL!T5/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F656" s="6">
+      <c r="F659" s="6">
         <f>+PAYROLL!T5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="4:6" ht="409.6">
-      <c r="D657" s="87" t="str">
+    <row r="660" spans="4:6">
+      <c r="D660" s="87" t="str">
         <f>+T(PAYROLL!$D$6)</f>
         <v/>
       </c>
-      <c r="E657" s="30">
+      <c r="E660" s="30">
         <f>+PAYROLL!T6/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F657" s="6">
+      <c r="F660" s="6">
         <f>+PAYROLL!T6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="4:6" ht="409.6">
-      <c r="D658" s="87" t="str">
+    <row r="661" spans="4:6">
+      <c r="D661" s="87" t="str">
         <f>+T(PAYROLL!$D$7)</f>
         <v/>
       </c>
-      <c r="E658" s="30">
+      <c r="E661" s="30">
         <f>+PAYROLL!T7/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F658" s="6">
+      <c r="F661" s="6">
         <f>+PAYROLL!T7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="4:6" ht="409.6">
-      <c r="D659" s="87" t="str">
+    <row r="662" spans="4:6">
+      <c r="D662" s="87" t="str">
         <f>+T(PAYROLL!$C$8)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E659" s="30">
+      <c r="E662" s="30">
         <f>+PAYROLL!T8/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F659" s="6">
+      <c r="F662" s="6">
         <f>+PAYROLL!T8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="4:6" ht="409.6">
-      <c r="D660" s="7" t="s">
+    <row r="663" spans="4:6">
+      <c r="D663" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E660" s="32" t="s">
+      <c r="E663" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F660" s="7" t="s">
+      <c r="F663" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="661" spans="4:6" ht="409.6">
-      <c r="D661" s="87" t="str">
+    <row r="664" spans="4:6">
+      <c r="D664" s="87" t="str">
         <f>+T(PAYROLL!$D$12)</f>
         <v/>
       </c>
-      <c r="E661" s="30">
+      <c r="E664" s="30">
         <f>+PAYROLL!T12/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F661" s="6">
+      <c r="F664" s="6">
         <f>+PAYROLL!T12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="4:6" ht="409.6">
-      <c r="D662" s="87" t="str">
+    <row r="665" spans="4:6">
+      <c r="D665" s="87" t="str">
         <f>+T(PAYROLL!$D$13)</f>
         <v/>
       </c>
-      <c r="E662" s="30">
+      <c r="E665" s="30">
         <f>+PAYROLL!T13/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F662" s="6">
+      <c r="F665" s="6">
         <f>+PAYROLL!T13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="4:6" ht="409.6">
-      <c r="D663" s="87" t="str">
+    <row r="666" spans="4:6">
+      <c r="D666" s="87" t="str">
         <f>+T(PAYROLL!$D$14)</f>
         <v/>
       </c>
-      <c r="E663" s="30">
+      <c r="E666" s="30">
         <f>+PAYROLL!T14/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F663" s="6">
+      <c r="F666" s="6">
         <f>+PAYROLL!T14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="4:6" ht="409.6">
-      <c r="D664" s="87" t="str">
+    <row r="667" spans="4:6">
+      <c r="D667" s="87" t="str">
         <f>+T(PAYROLL!$D$15)</f>
         <v/>
       </c>
-      <c r="E664" s="30">
+      <c r="E667" s="30">
         <f>+PAYROLL!T15/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F664" s="6">
+      <c r="F667" s="6">
         <f>+PAYROLL!T15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="4:6" ht="409.6">
-      <c r="D665" s="87" t="str">
+    <row r="668" spans="4:6">
+      <c r="D668" s="87" t="str">
         <f>+T(PAYROLL!$D$16)</f>
         <v/>
       </c>
-      <c r="E665" s="30">
+      <c r="E668" s="30">
         <f>+PAYROLL!T16/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F665" s="6">
+      <c r="F668" s="6">
         <f>+PAYROLL!T16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="4:6" ht="409.6">
-      <c r="D666" s="87" t="str">
+    <row r="669" spans="4:6">
+      <c r="D669" s="87" t="str">
         <f>+T(PAYROLL!$C$17)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E666" s="30">
+      <c r="E669" s="30">
         <f>+PAYROLL!T17/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F666" s="6">
+      <c r="F669" s="6">
         <f>+PAYROLL!T17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="4:6" ht="409.6">
-      <c r="D667" s="7" t="s">
+    <row r="670" spans="4:6">
+      <c r="D670" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E667" s="32" t="s">
+      <c r="E670" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F667" s="7" t="s">
+      <c r="F670" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="668" spans="4:6" ht="409.6">
-      <c r="D668" s="87" t="str">
+    <row r="671" spans="4:6">
+      <c r="D671" s="87" t="str">
         <f>+T(PAYROLL!$D$21)</f>
         <v/>
       </c>
-      <c r="E668" s="30">
+      <c r="E671" s="30">
         <f>+PAYROLL!T21/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F668" s="6">
+      <c r="F671" s="6">
         <f>+PAYROLL!T21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="4:6" ht="409.6">
-      <c r="D669" s="87" t="str">
+    <row r="672" spans="4:6">
+      <c r="D672" s="87" t="str">
         <f>+T(PAYROLL!$D$22)</f>
         <v/>
       </c>
-      <c r="E669" s="30">
+      <c r="E672" s="30">
         <f>+PAYROLL!T22/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F669" s="6">
+      <c r="F672" s="6">
         <f>+PAYROLL!T22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="4:6" ht="409.6">
-      <c r="D670" s="87" t="str">
+    <row r="673" spans="4:6">
+      <c r="D673" s="87" t="str">
         <f>+T(PAYROLL!$D$23)</f>
         <v/>
       </c>
-      <c r="E670" s="30">
+      <c r="E673" s="30">
         <f>+PAYROLL!T23/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F670" s="6">
+      <c r="F673" s="6">
         <f>+PAYROLL!T23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="4:6" ht="409.6">
-      <c r="D671" s="87" t="str">
+    <row r="674" spans="4:6">
+      <c r="D674" s="87" t="str">
         <f>+T(PAYROLL!$D$24)</f>
         <v/>
       </c>
-      <c r="E671" s="30">
+      <c r="E674" s="30">
         <f>+PAYROLL!T24/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F671" s="6">
+      <c r="F674" s="6">
         <f>+PAYROLL!T24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="4:6" ht="409.6">
-      <c r="D672" s="87" t="str">
+    <row r="675" spans="4:6">
+      <c r="D675" s="87" t="str">
         <f>+T(PAYROLL!$D$25)</f>
         <v/>
       </c>
-      <c r="E672" s="30">
+      <c r="E675" s="30">
         <f>+PAYROLL!T25/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F672" s="6">
+      <c r="F675" s="6">
         <f>+PAYROLL!T25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="4:6" ht="409.6">
-      <c r="D673" s="87" t="str">
+    <row r="676" spans="4:6">
+      <c r="D676" s="87" t="str">
         <f>+T(PAYROLL!$C$26)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E673" s="30">
+      <c r="E676" s="30">
         <f>+PAYROLL!T26/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F673" s="6">
+      <c r="F676" s="6">
         <f>+PAYROLL!T26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="4:6" ht="409.6">
-      <c r="D674" s="7" t="s">
+    <row r="677" spans="4:6">
+      <c r="D677" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E674" s="32" t="s">
+      <c r="E677" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F674" s="7" t="s">
+      <c r="F677" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="675" spans="4:6" ht="409.6">
-      <c r="D675" s="87" t="str">
+    <row r="678" spans="4:6">
+      <c r="D678" s="87" t="str">
         <f>+T(PAYROLL!$D$30)</f>
         <v/>
       </c>
-      <c r="E675" s="30">
+      <c r="E678" s="30">
         <f>+PAYROLL!T30/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F675" s="6">
+      <c r="F678" s="6">
         <f>+PAYROLL!T30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="4:6" ht="409.6">
-      <c r="D676" s="87" t="str">
+    <row r="679" spans="4:6">
+      <c r="D679" s="87" t="str">
         <f>+T(PAYROLL!$D$31)</f>
         <v/>
       </c>
-      <c r="E676" s="30">
+      <c r="E679" s="30">
         <f>+PAYROLL!T31/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F676" s="6">
+      <c r="F679" s="6">
         <f>+PAYROLL!T31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="4:6" ht="409.6">
-      <c r="D677" s="87" t="str">
+    <row r="680" spans="4:6">
+      <c r="D680" s="87" t="str">
         <f>+T(PAYROLL!$D$32)</f>
         <v/>
       </c>
-      <c r="E677" s="30">
+      <c r="E680" s="30">
         <f>+PAYROLL!T32/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F677" s="6">
+      <c r="F680" s="6">
         <f>+PAYROLL!T32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="4:6" ht="409.6">
-      <c r="D678" s="87" t="str">
+    <row r="681" spans="4:6">
+      <c r="D681" s="87" t="str">
         <f>+T(PAYROLL!$D$33)</f>
         <v/>
       </c>
-      <c r="E678" s="30">
+      <c r="E681" s="30">
         <f>+PAYROLL!T33/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F678" s="6">
+      <c r="F681" s="6">
         <f>+PAYROLL!T33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="4:6" ht="409.6">
-      <c r="D679" s="87" t="str">
+    <row r="682" spans="4:6">
+      <c r="D682" s="87" t="str">
         <f>+T(PAYROLL!$D$34)</f>
         <v/>
       </c>
-      <c r="E679" s="30">
+      <c r="E682" s="30">
         <f>+PAYROLL!T34/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F679" s="6">
+      <c r="F682" s="6">
         <f>+PAYROLL!T34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="4:6" ht="409.6">
-      <c r="D680" s="87" t="str">
+    <row r="683" spans="4:6">
+      <c r="D683" s="87" t="str">
         <f>+T(PAYROLL!$C$35)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E680" s="30">
+      <c r="E683" s="30">
         <f>+PAYROLL!T35/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F680" s="6">
+      <c r="F683" s="6">
         <f>+PAYROLL!T35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="4:6" ht="409.6">
-      <c r="D681" s="7" t="s">
+    <row r="684" spans="4:6">
+      <c r="D684" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E681" s="32" t="s">
+      <c r="E684" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F681" s="7" t="s">
+      <c r="F684" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="682" spans="4:6" ht="409.6">
-      <c r="D682" s="87" t="str">
+    <row r="685" spans="4:6">
+      <c r="D685" s="87" t="str">
         <f>+T(PAYROLL!$D$39)</f>
         <v/>
       </c>
-      <c r="E682" s="30">
+      <c r="E685" s="30">
         <f>+PAYROLL!T39/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F682" s="6">
+      <c r="F685" s="6">
         <f>+PAYROLL!T39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="4:6" ht="409.6">
-      <c r="D683" s="87" t="str">
+    <row r="686" spans="4:6">
+      <c r="D686" s="87" t="str">
         <f>+T(PAYROLL!$D$40)</f>
         <v/>
       </c>
-      <c r="E683" s="30">
+      <c r="E686" s="30">
         <f>+PAYROLL!T40/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F683" s="6">
+      <c r="F686" s="6">
         <f>+PAYROLL!T40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="4:6" ht="409.6">
-      <c r="D684" s="87" t="str">
+    <row r="687" spans="4:6">
+      <c r="D687" s="87" t="str">
         <f>+T(PAYROLL!$D$41)</f>
         <v/>
       </c>
-      <c r="E684" s="30">
+      <c r="E687" s="30">
         <f>+PAYROLL!T41/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F684" s="6">
+      <c r="F687" s="6">
         <f>+PAYROLL!T41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="4:6" ht="409.6">
-      <c r="D685" s="87" t="str">
+    <row r="688" spans="4:6">
+      <c r="D688" s="87" t="str">
         <f>+T(PAYROLL!$D$42)</f>
         <v/>
       </c>
-      <c r="E685" s="30">
+      <c r="E688" s="30">
         <f>+PAYROLL!T42/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F685" s="6">
+      <c r="F688" s="6">
         <f>+PAYROLL!T42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="4:6" ht="409.6">
-      <c r="D686" s="87" t="str">
+    <row r="689" spans="2:6">
+      <c r="D689" s="87" t="str">
         <f>+T(PAYROLL!$D$43)</f>
         <v/>
       </c>
-      <c r="E686" s="30">
+      <c r="E689" s="30">
         <f>+PAYROLL!T43/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F686" s="6">
+      <c r="F689" s="6">
         <f>+PAYROLL!T43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="4:6" ht="409.6">
-      <c r="D687" s="87" t="str">
+    <row r="690" spans="2:6">
+      <c r="D690" s="87" t="str">
         <f>+T(PAYROLL!$C$44)</f>
         <v>COV SCHL</v>
       </c>
-      <c r="E687" s="30">
+      <c r="E690" s="30">
         <f>+PAYROLL!T44/PAY!$C$17</f>
         <v>0</v>
       </c>
-      <c r="F687" s="6">
+      <c r="F690" s="6">
         <f>+PAYROLL!T44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="4:6" ht="409.6">
-      <c r="E688" s="33"/>
-    </row>
-    <row r="689" spans="2:6" ht="409.6">
-      <c r="D689" s="15" t="s">
+    <row r="691" spans="2:6">
+      <c r="E691" s="33"/>
+    </row>
+    <row r="692" spans="2:6">
+      <c r="D692" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E689" s="34">
-        <f>SUM(E654:E687)</f>
-        <v>0</v>
-      </c>
-      <c r="F689" s="8">
-        <f>SUM(F654:F687)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="690" spans="2:6" ht="409.6">
-      <c r="E690" s="33"/>
-    </row>
-    <row r="691" spans="2:6" ht="409.6">
-      <c r="B691" s="39" t="s">
+      <c r="E692" s="34">
+        <f>SUM(E657:E690)</f>
+        <v>0</v>
+      </c>
+      <c r="F692" s="8">
+        <f>SUM(F657:F690)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="2:6">
+      <c r="E693" s="33"/>
+    </row>
+    <row r="694" spans="2:6">
+      <c r="B694" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C691" s="39"/>
-      <c r="E691" s="33"/>
-    </row>
-    <row r="692" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B692" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C692" s="41"/>
-      <c r="D692" s="41"/>
-      <c r="E692" s="33"/>
-    </row>
-    <row r="693" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B693" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C693" s="41"/>
-      <c r="D693" s="41"/>
-      <c r="E693" s="33"/>
-    </row>
-    <row r="694" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B694" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C694" s="41"/>
-      <c r="D694" s="41"/>
+      <c r="C694" s="39"/>
       <c r="E694" s="33"/>
     </row>
     <row r="695" spans="2:6" ht="13.5" thickBot="1">
       <c r="B695" s="40" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C695" s="41"/>
       <c r="D695" s="41"/>
+      <c r="E695" s="33"/>
     </row>
     <row r="696" spans="2:6" ht="13.5" thickBot="1">
       <c r="B696" s="40" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C696" s="41"/>
       <c r="D696" s="41"/>
-    </row>
-    <row r="697" spans="2:6" ht="409.6">
-      <c r="B697" s="40"/>
-      <c r="C697" s="70"/>
-      <c r="D697" s="70"/>
+      <c r="E696" s="33"/>
+    </row>
+    <row r="697" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B697" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C697" s="41"/>
+      <c r="D697" s="41"/>
+      <c r="E697" s="33"/>
+    </row>
+    <row r="698" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B698" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C698" s="41"/>
+      <c r="D698" s="41"/>
+    </row>
+    <row r="699" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B699" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C699" s="41"/>
+      <c r="D699" s="41"/>
+    </row>
+    <row r="700" spans="2:6">
+      <c r="B700" s="40"/>
+      <c r="C700" s="70"/>
+      <c r="D700" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D654:F654"/>
+    <mergeCell ref="D553:F553"/>
+    <mergeCell ref="D501:F501"/>
+    <mergeCell ref="D399:F399"/>
+    <mergeCell ref="D428:F428"/>
+    <mergeCell ref="D452:F452"/>
     <mergeCell ref="D346:F346"/>
-    <mergeCell ref="D600:F600"/>
+    <mergeCell ref="D603:F603"/>
     <mergeCell ref="D250:F250"/>
     <mergeCell ref="D298:F298"/>
     <mergeCell ref="D2:F2"/>
@@ -15389,12 +15481,6 @@
     <mergeCell ref="D154:F154"/>
     <mergeCell ref="D202:F202"/>
     <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D651:F651"/>
-    <mergeCell ref="D550:F550"/>
-    <mergeCell ref="D498:F498"/>
-    <mergeCell ref="D399:F399"/>
-    <mergeCell ref="D425:F425"/>
-    <mergeCell ref="D449:F449"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15407,9 +15493,9 @@
     <brk id="248" max="16383" man="1"/>
     <brk id="296" max="16383" man="1"/>
     <brk id="344" max="16383" man="1"/>
-    <brk id="421" max="16383" man="1"/>
-    <brk id="447" max="16383" man="1"/>
-    <brk id="496" max="16383" man="1"/>
+    <brk id="424" max="16383" man="1"/>
+    <brk id="450" max="16383" man="1"/>
+    <brk id="499" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -15462,22 +15548,22 @@
       <c r="C2" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="169" t="s">
+      <c r="D2" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="171"/>
-      <c r="F2" s="169" t="s">
+      <c r="E2" s="174"/>
+      <c r="F2" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="171"/>
-      <c r="H2" s="169" t="s">
+      <c r="G2" s="174"/>
+      <c r="H2" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="171"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="174"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -15700,12 +15786,12 @@
         <v>62</v>
       </c>
       <c r="G8" s="166"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="175"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="171"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
@@ -20105,33 +20191,12 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:M16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:M17"/>
@@ -20148,12 +20213,33 @@
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H13:M13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/lib/Template A.xlsx
+++ b/lib/Template A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="23760" windowHeight="6780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="23760" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="PAYROLL" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="78">
   <si>
     <t>Monday</t>
   </si>
@@ -1003,6 +1003,15 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1058,15 +1067,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1138,6 +1138,18 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1146,18 +1158,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1494,7 +1494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1504,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1519,26 +1519,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" customHeight="1">
-      <c r="A1" s="132"/>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="140" t="s">
+      <c r="A1" s="135"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="128" t="s">
+      <c r="E1" s="143"/>
+      <c r="F1" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="128"/>
-      <c r="H1" s="129"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="132"/>
       <c r="I1" s="106">
         <v>2016</v>
       </c>
-      <c r="J1" s="130" t="s">
+      <c r="J1" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
       <c r="M1" s="79"/>
       <c r="N1" s="42"/>
       <c r="O1" s="42"/>
@@ -2006,10 +2006,10 @@
     <row r="8" spans="1:21" ht="13.5" thickBot="1">
       <c r="A8" s="111"/>
       <c r="B8" s="113"/>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="144"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="17">
         <v>10</v>
       </c>
@@ -2167,11 +2167,11 @@
       <c r="G10" s="69"/>
       <c r="H10" s="69"/>
       <c r="I10" s="69"/>
-      <c r="J10" s="127" t="s">
+      <c r="J10" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
       <c r="M10" s="69"/>
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
@@ -2233,11 +2233,15 @@
       <c r="Q11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="12"/>
+      <c r="R11" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="S11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="T11" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="U11" s="13" t="s">
         <v>10</v>
       </c>
@@ -2633,12 +2637,12 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="13.5" thickBot="1">
-      <c r="A17" s="134"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="145" t="s">
+      <c r="A17" s="137"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="144"/>
+      <c r="D17" s="125"/>
       <c r="E17" s="17">
         <v>10</v>
       </c>
@@ -2708,8 +2712,8 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="136"/>
-      <c r="B18" s="137"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="94">
         <f>SUM(C12:C17)</f>
         <v>0</v>
@@ -2787,8 +2791,8 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A19" s="138"/>
-      <c r="B19" s="139"/>
+      <c r="A19" s="141"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="69"/>
       <c r="D19" s="69"/>
       <c r="E19" s="69"/>
@@ -2796,11 +2800,11 @@
       <c r="G19" s="69"/>
       <c r="H19" s="69"/>
       <c r="I19" s="69"/>
-      <c r="J19" s="127" t="s">
+      <c r="J19" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
       <c r="M19" s="69"/>
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
@@ -2862,11 +2866,15 @@
       <c r="Q20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="R20" s="12"/>
+      <c r="R20" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="S20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="T20" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="U20" s="13" t="s">
         <v>10</v>
       </c>
@@ -3264,10 +3272,10 @@
     <row r="26" spans="1:21" ht="13.5" thickBot="1">
       <c r="A26" s="113"/>
       <c r="B26" s="118"/>
-      <c r="C26" s="145" t="s">
+      <c r="C26" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="144"/>
+      <c r="D26" s="125"/>
       <c r="E26" s="17">
         <v>10</v>
       </c>
@@ -3425,11 +3433,11 @@
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="69"/>
-      <c r="J28" s="127" t="s">
+      <c r="J28" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
       <c r="M28" s="69"/>
       <c r="N28" s="42"/>
       <c r="O28" s="42"/>
@@ -3491,11 +3499,15 @@
       <c r="Q29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="R29" s="12"/>
+      <c r="R29" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="S29" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="T29" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="U29" s="13" t="s">
         <v>10</v>
       </c>
@@ -3891,12 +3903,12 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="13.5" thickBot="1">
-      <c r="A35" s="134"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="145" t="s">
+      <c r="A35" s="137"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="144"/>
+      <c r="D35" s="125"/>
       <c r="E35" s="17">
         <v>10</v>
       </c>
@@ -3966,8 +3978,8 @@
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="136"/>
-      <c r="B36" s="137"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="140"/>
       <c r="C36" s="94">
         <f>SUM(C30:C35)</f>
         <v>0</v>
@@ -4045,8 +4057,8 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A37" s="138"/>
-      <c r="B37" s="139"/>
+      <c r="A37" s="141"/>
+      <c r="B37" s="142"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
       <c r="E37" s="69"/>
@@ -4054,11 +4066,11 @@
       <c r="G37" s="69"/>
       <c r="H37" s="69"/>
       <c r="I37" s="69"/>
-      <c r="J37" s="127" t="s">
+      <c r="J37" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="127"/>
-      <c r="L37" s="127"/>
+      <c r="K37" s="130"/>
+      <c r="L37" s="130"/>
       <c r="M37" s="69"/>
       <c r="N37" s="42"/>
       <c r="O37" s="42"/>
@@ -4120,11 +4132,15 @@
       <c r="Q38" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="R38" s="12"/>
+      <c r="R38" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="S38" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="T38" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="U38" s="13" t="s">
         <v>10</v>
       </c>
@@ -4520,12 +4536,12 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="13.5" thickBot="1">
-      <c r="A44" s="133"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="143" t="s">
+      <c r="A44" s="136"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="144"/>
+      <c r="D44" s="125"/>
       <c r="E44" s="17">
         <v>10</v>
       </c>
@@ -4595,8 +4611,8 @@
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="133"/>
-      <c r="B45" s="133"/>
+      <c r="A45" s="136"/>
+      <c r="B45" s="136"/>
       <c r="C45" s="94">
         <f>SUM(C39:C44)</f>
         <v>0</v>
@@ -4674,8 +4690,8 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A46" s="133"/>
-      <c r="B46" s="133"/>
+      <c r="A46" s="136"/>
+      <c r="B46" s="136"/>
       <c r="C46" s="69"/>
       <c r="D46" s="69"/>
       <c r="E46" s="69"/>
@@ -4683,11 +4699,11 @@
       <c r="G46" s="69"/>
       <c r="H46" s="69"/>
       <c r="I46" s="69"/>
-      <c r="J46" s="127" t="s">
+      <c r="J46" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="K46" s="127"/>
-      <c r="L46" s="127"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="130"/>
       <c r="M46" s="69"/>
       <c r="N46" s="42"/>
       <c r="O46" s="42"/>
@@ -4698,8 +4714,8 @@
       <c r="T46" s="67"/>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="133"/>
-      <c r="B47" s="133"/>
+      <c r="A47" s="136"/>
+      <c r="B47" s="136"/>
       <c r="C47" s="112" t="s">
         <v>7</v>
       </c>
@@ -4733,9 +4749,9 @@
       </c>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="133"/>
-      <c r="B48" s="133"/>
-      <c r="C48" s="141"/>
+      <c r="A48" s="136"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="144"/>
       <c r="D48" s="110" t="s">
         <v>47</v>
       </c>
@@ -4763,9 +4779,9 @@
       </c>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="133"/>
-      <c r="B49" s="133"/>
-      <c r="C49" s="142"/>
+      <c r="A49" s="136"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="145"/>
       <c r="D49" s="110" t="s">
         <v>48</v>
       </c>
@@ -4791,8 +4807,8 @@
       </c>
     </row>
     <row r="50" spans="1:21" ht="13.5" thickBot="1">
-      <c r="A50" s="133"/>
-      <c r="B50" s="133"/>
+      <c r="A50" s="136"/>
+      <c r="B50" s="136"/>
       <c r="C50" s="94">
         <f>SUM(C49:C49)</f>
         <v>0</v>
@@ -4870,12 +4886,12 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A51" s="133"/>
-      <c r="B51" s="133"/>
-      <c r="C51" s="125" t="s">
+      <c r="A51" s="136"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="126"/>
+      <c r="D51" s="129"/>
       <c r="E51" s="92">
         <f>+E9+E18+E27+E36+E45+E50</f>
         <v>60</v>
@@ -5099,67 +5115,79 @@
       </c>
     </row>
     <row r="56" spans="1:21" ht="12.75" customHeight="1">
-      <c r="D56" s="124" t="str">
+      <c r="D56" s="127" t="str">
         <f>IF(U55 = 0,"CHECKS GOOD","ERROR IN PRINTOUT")</f>
         <v>CHECKS GOOD</v>
       </c>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="124"/>
-      <c r="M56" s="124"/>
-      <c r="N56" s="124"/>
-      <c r="O56" s="124"/>
-      <c r="P56" s="124"/>
-      <c r="Q56" s="124"/>
-      <c r="R56" s="124"/>
-      <c r="S56" s="124"/>
-      <c r="T56" s="124"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="127"/>
+      <c r="M56" s="127"/>
+      <c r="N56" s="127"/>
+      <c r="O56" s="127"/>
+      <c r="P56" s="127"/>
+      <c r="Q56" s="127"/>
+      <c r="R56" s="127"/>
+      <c r="S56" s="127"/>
+      <c r="T56" s="127"/>
     </row>
     <row r="57" spans="1:21" ht="12.75" customHeight="1">
-      <c r="D57" s="124"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="124"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="124"/>
-      <c r="J57" s="124"/>
-      <c r="K57" s="124"/>
-      <c r="L57" s="124"/>
-      <c r="M57" s="124"/>
-      <c r="N57" s="124"/>
-      <c r="O57" s="124"/>
-      <c r="P57" s="124"/>
-      <c r="Q57" s="124"/>
-      <c r="R57" s="124"/>
-      <c r="S57" s="124"/>
-      <c r="T57" s="124"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="127"/>
+      <c r="L57" s="127"/>
+      <c r="M57" s="127"/>
+      <c r="N57" s="127"/>
+      <c r="O57" s="127"/>
+      <c r="P57" s="127"/>
+      <c r="Q57" s="127"/>
+      <c r="R57" s="127"/>
+      <c r="S57" s="127"/>
+      <c r="T57" s="127"/>
     </row>
     <row r="58" spans="1:21" ht="12.75" customHeight="1">
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
-      <c r="J58" s="124"/>
-      <c r="K58" s="124"/>
-      <c r="L58" s="124"/>
-      <c r="M58" s="124"/>
-      <c r="N58" s="124"/>
-      <c r="O58" s="124"/>
-      <c r="P58" s="124"/>
-      <c r="Q58" s="124"/>
-      <c r="R58" s="124"/>
-      <c r="S58" s="124"/>
-      <c r="T58" s="124"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="127"/>
+      <c r="L58" s="127"/>
+      <c r="M58" s="127"/>
+      <c r="N58" s="127"/>
+      <c r="O58" s="127"/>
+      <c r="P58" s="127"/>
+      <c r="Q58" s="127"/>
+      <c r="R58" s="127"/>
+      <c r="S58" s="127"/>
+      <c r="T58" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A44:B51"/>
+    <mergeCell ref="A35:B37"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J28:L28"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C17:D17"/>
@@ -5168,18 +5196,6 @@
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="J37:L37"/>
     <mergeCell ref="J46:L46"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A44:B51"/>
-    <mergeCell ref="A35:B37"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C44:D44"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.11" right="0.05" top="0.1" bottom="7.0000000000000007E-2" header="0" footer="0"/>
@@ -7375,7 +7391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A396" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E413" sqref="E413"/>
     </sheetView>
   </sheetViews>
@@ -15466,12 +15482,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D654:F654"/>
-    <mergeCell ref="D553:F553"/>
-    <mergeCell ref="D501:F501"/>
-    <mergeCell ref="D399:F399"/>
-    <mergeCell ref="D428:F428"/>
-    <mergeCell ref="D452:F452"/>
     <mergeCell ref="D346:F346"/>
     <mergeCell ref="D603:F603"/>
     <mergeCell ref="D250:F250"/>
@@ -15481,6 +15491,12 @@
     <mergeCell ref="D154:F154"/>
     <mergeCell ref="D202:F202"/>
     <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D654:F654"/>
+    <mergeCell ref="D553:F553"/>
+    <mergeCell ref="D501:F501"/>
+    <mergeCell ref="D399:F399"/>
+    <mergeCell ref="D428:F428"/>
+    <mergeCell ref="D452:F452"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15548,22 +15564,22 @@
       <c r="C2" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="173" t="s">
+      <c r="D2" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="174"/>
-      <c r="F2" s="173" t="s">
+      <c r="E2" s="171"/>
+      <c r="F2" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="174"/>
-      <c r="H2" s="173" t="s">
+      <c r="G2" s="171"/>
+      <c r="H2" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="174"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="171"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -15786,12 +15802,12 @@
         <v>62</v>
       </c>
       <c r="G8" s="166"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="171"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="175"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
@@ -20191,12 +20207,33 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:M17"/>
@@ -20213,33 +20250,12 @@
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:M16"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
